--- a/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/13/flowCurve.xlsx
+++ b/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/13/flowCurve.xlsx
@@ -455,10 +455,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>634.9870275334584</v>
+        <v>372.8649014658506</v>
       </c>
       <c r="C2" t="n">
-        <v>634987027.5334585</v>
+        <v>372864901.4658506</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>0.002</v>
       </c>
       <c r="B3" t="n">
-        <v>812.716431383936</v>
+        <v>581.8412482574066</v>
       </c>
       <c r="C3" t="n">
-        <v>812716431.3839359</v>
+        <v>581841248.2574066</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>0.004</v>
       </c>
       <c r="B4" t="n">
-        <v>887.5467666975741</v>
+        <v>660.9475224008074</v>
       </c>
       <c r="C4" t="n">
-        <v>887546766.697574</v>
+        <v>660947522.4008074</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>0.006</v>
       </c>
       <c r="B5" t="n">
-        <v>937.6306326456498</v>
+        <v>714.0081691295472</v>
       </c>
       <c r="C5" t="n">
-        <v>937630632.6456498</v>
+        <v>714008169.1295472</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>0.008</v>
       </c>
       <c r="B6" t="n">
-        <v>975.8775576965803</v>
+        <v>754.8048951448574</v>
       </c>
       <c r="C6" t="n">
-        <v>975877557.6965803</v>
+        <v>754804895.1448574</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>0.01</v>
       </c>
       <c r="B7" t="n">
-        <v>1007.070014296059</v>
+        <v>788.310284200634</v>
       </c>
       <c r="C7" t="n">
-        <v>1007070014.296059</v>
+        <v>788310284.200634</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.012</v>
       </c>
       <c r="B8" t="n">
-        <v>1033.540409596013</v>
+        <v>816.9288199638543</v>
       </c>
       <c r="C8" t="n">
-        <v>1033540409.596013</v>
+        <v>816928819.9638543</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>0.014</v>
       </c>
       <c r="B9" t="n">
-        <v>1056.611274579958</v>
+        <v>842.0200755662988</v>
       </c>
       <c r="C9" t="n">
-        <v>1056611274.579958</v>
+        <v>842020075.5662988</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>0.016</v>
       </c>
       <c r="B10" t="n">
-        <v>1077.108827628243</v>
+        <v>864.4331091203713</v>
       </c>
       <c r="C10" t="n">
-        <v>1077108827.628242</v>
+        <v>864433109.1203713</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>0.018</v>
       </c>
       <c r="B11" t="n">
-        <v>1095.585568794392</v>
+        <v>884.7361734460792</v>
       </c>
       <c r="C11" t="n">
-        <v>1095585568.794392</v>
+        <v>884736173.4460791</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>0.02</v>
       </c>
       <c r="B12" t="n">
-        <v>1112.430123581257</v>
+        <v>903.3295623082944</v>
       </c>
       <c r="C12" t="n">
-        <v>1112430123.581257</v>
+        <v>903329562.3082944</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>0.022</v>
       </c>
       <c r="B13" t="n">
-        <v>1127.926758850032</v>
+        <v>920.5066058452991</v>
       </c>
       <c r="C13" t="n">
-        <v>1127926758.850033</v>
+        <v>920506605.8452991</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>0.024</v>
       </c>
       <c r="B14" t="n">
-        <v>1142.290000528373</v>
+        <v>936.4891076092232</v>
       </c>
       <c r="C14" t="n">
-        <v>1142290000.528373</v>
+        <v>936489107.6092232</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>0.026</v>
       </c>
       <c r="B15" t="n">
-        <v>1155.685925623406</v>
+        <v>951.4491323928281</v>
       </c>
       <c r="C15" t="n">
-        <v>1155685925.623406</v>
+        <v>951449132.3928281</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>0.028</v>
       </c>
       <c r="B16" t="n">
-        <v>1168.245863523661</v>
+        <v>965.5230286389401</v>
       </c>
       <c r="C16" t="n">
-        <v>1168245863.523661</v>
+        <v>965523028.6389401</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>0.03</v>
       </c>
       <c r="B17" t="n">
-        <v>1180.075548419236</v>
+        <v>978.8208000150472</v>
       </c>
       <c r="C17" t="n">
-        <v>1180075548.419236</v>
+        <v>978820800.0150472</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>0.032</v>
       </c>
       <c r="B18" t="n">
-        <v>1191.261428367095</v>
+        <v>991.4325703145906</v>
       </c>
       <c r="C18" t="n">
-        <v>1191261428.367095</v>
+        <v>991432570.3145907</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>0.034</v>
       </c>
       <c r="B19" t="n">
-        <v>1201.875132635704</v>
+        <v>1003.433165286586</v>
       </c>
       <c r="C19" t="n">
-        <v>1201875132.635704</v>
+        <v>1003433165.286587</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>0.036</v>
       </c>
       <c r="B20" t="n">
-        <v>1211.976709157248</v>
+        <v>1014.885436441242</v>
       </c>
       <c r="C20" t="n">
-        <v>1211976709.157248</v>
+        <v>1014885436.441242</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>0.038</v>
       </c>
       <c r="B21" t="n">
-        <v>1221.617018652592</v>
+        <v>1025.842721736978</v>
       </c>
       <c r="C21" t="n">
-        <v>1221617018.652592</v>
+        <v>1025842721.736978</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +675,10 @@
         <v>0.04</v>
       </c>
       <c r="B22" t="n">
-        <v>1230.839536948678</v>
+        <v>1036.350700142954</v>
       </c>
       <c r="C22" t="n">
-        <v>1230839536.948678</v>
+        <v>1036350700.142954</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +686,10 @@
         <v>0.042</v>
       </c>
       <c r="B23" t="n">
-        <v>1239.681733414585</v>
+        <v>1046.448811718538</v>
       </c>
       <c r="C23" t="n">
-        <v>1239681733.414585</v>
+        <v>1046448811.718538</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>0.044</v>
       </c>
       <c r="B24" t="n">
-        <v>1248.176140219729</v>
+        <v>1056.171360506898</v>
       </c>
       <c r="C24" t="n">
-        <v>1248176140.219729</v>
+        <v>1056171360.506898</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>0.046</v>
       </c>
       <c r="B25" t="n">
-        <v>1256.351192374204</v>
+        <v>1065.548382057815</v>
       </c>
       <c r="C25" t="n">
-        <v>1256351192.374204</v>
+        <v>1065548382.057815</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>0.048</v>
       </c>
       <c r="B26" t="n">
-        <v>1264.231895318793</v>
+        <v>1074.606333702101</v>
       </c>
       <c r="C26" t="n">
-        <v>1264231895.318793</v>
+        <v>1074606333.702101</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>0.05</v>
       </c>
       <c r="B27" t="n">
-        <v>1271.840361036684</v>
+        <v>1083.368649557197</v>
       </c>
       <c r="C27" t="n">
-        <v>1271840361.036684</v>
+        <v>1083368649.557197</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>0.052</v>
       </c>
       <c r="B28" t="n">
-        <v>1279.196242704036</v>
+        <v>1091.856191042503</v>
       </c>
       <c r="C28" t="n">
-        <v>1279196242.704036</v>
+        <v>1091856191.042503</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>0.054</v>
       </c>
       <c r="B29" t="n">
-        <v>1286.317090172631</v>
+        <v>1100.087615781109</v>
       </c>
       <c r="C29" t="n">
-        <v>1286317090.172631</v>
+        <v>1100087615.781109</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>0.056</v>
       </c>
       <c r="B30" t="n">
-        <v>1293.218643049322</v>
+        <v>1108.079682105412</v>
       </c>
       <c r="C30" t="n">
-        <v>1293218643.049322</v>
+        <v>1108079682.105412</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>0.058</v>
       </c>
       <c r="B31" t="n">
-        <v>1299.915074124885</v>
+        <v>1115.847502274557</v>
       </c>
       <c r="C31" t="n">
-        <v>1299915074.124885</v>
+        <v>1115847502.274557</v>
       </c>
     </row>
     <row r="32">
@@ -785,10 +785,10 @@
         <v>0.06</v>
       </c>
       <c r="B32" t="n">
-        <v>1306.419192956056</v>
+        <v>1123.404754489165</v>
       </c>
       <c r="C32" t="n">
-        <v>1306419192.956056</v>
+        <v>1123404754.489165</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +796,10 @@
         <v>0.062</v>
       </c>
       <c r="B33" t="n">
-        <v>1312.742617211707</v>
+        <v>1130.76386153969</v>
       </c>
       <c r="C33" t="n">
-        <v>1312742617.211707</v>
+        <v>1130763861.53969</v>
       </c>
     </row>
     <row r="34">
@@ -807,10 +807,10 @@
         <v>0.064</v>
       </c>
       <c r="B34" t="n">
-        <v>1318.895917745552</v>
+        <v>1137.936142232659</v>
       </c>
       <c r="C34" t="n">
-        <v>1318895917.745552</v>
+        <v>1137936142.232659</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +818,10 @@
         <v>0.066</v>
       </c>
       <c r="B35" t="n">
-        <v>1324.888742105988</v>
+        <v>1144.931940453267</v>
       </c>
       <c r="C35" t="n">
-        <v>1324888742.105988</v>
+        <v>1144931940.453267</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +829,10 @@
         <v>0.068</v>
       </c>
       <c r="B36" t="n">
-        <v>1330.729920234076</v>
+        <v>1151.760735736435</v>
       </c>
       <c r="C36" t="n">
-        <v>1330729920.234076</v>
+        <v>1151760735.736435</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +840,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B37" t="n">
-        <v>1336.427555358644</v>
+        <v>1158.431238455138</v>
       </c>
       <c r="C37" t="n">
-        <v>1336427555.358644</v>
+        <v>1158431238.455138</v>
       </c>
     </row>
     <row r="38">
@@ -851,10 +851,10 @@
         <v>0.07199999999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>1341.98910251897</v>
+        <v>1164.951472139259</v>
       </c>
       <c r="C38" t="n">
-        <v>1341989102.51897</v>
+        <v>1164951472.139259</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +862,10 @@
         <v>0.074</v>
       </c>
       <c r="B39" t="n">
-        <v>1347.42143669099</v>
+        <v>1171.328844969972</v>
       </c>
       <c r="C39" t="n">
-        <v>1347421436.69099</v>
+        <v>1171328844.969972</v>
       </c>
     </row>
     <row r="40">
@@ -873,10 +873,10 @@
         <v>0.076</v>
       </c>
       <c r="B40" t="n">
-        <v>1352.73091213324</v>
+        <v>1177.570212123792</v>
       </c>
       <c r="C40" t="n">
-        <v>1352730912.13324</v>
+        <v>1177570212.123792</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +884,10 @@
         <v>0.078</v>
       </c>
       <c r="B41" t="n">
-        <v>1357.92341428219</v>
+        <v>1183.681930344742</v>
       </c>
       <c r="C41" t="n">
-        <v>1357923414.28219</v>
+        <v>1183681930.344742</v>
       </c>
     </row>
     <row r="42">
@@ -895,10 +895,10 @@
         <v>0.08</v>
       </c>
       <c r="B42" t="n">
-        <v>1363.004405296746</v>
+        <v>1189.669905885761</v>
       </c>
       <c r="C42" t="n">
-        <v>1363004405.296746</v>
+        <v>1189669905.885761</v>
       </c>
     </row>
     <row r="43">
@@ -906,10 +906,10 @@
         <v>0.082</v>
       </c>
       <c r="B43" t="n">
-        <v>1367.978964166318</v>
+        <v>1195.539636768892</v>
       </c>
       <c r="C43" t="n">
-        <v>1367978964.166318</v>
+        <v>1195539636.768892</v>
       </c>
     </row>
     <row r="44">
@@ -917,10 +917,10 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="B44" t="n">
-        <v>1372.851822146375</v>
+        <v>1201.296250158197</v>
       </c>
       <c r="C44" t="n">
-        <v>1372851822.146375</v>
+        <v>1201296250.158197</v>
       </c>
     </row>
     <row r="45">
@@ -928,10 +928,10 @@
         <v>0.08599999999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>1377.627394162653</v>
+        <v>1206.944535512313</v>
       </c>
       <c r="C45" t="n">
-        <v>1377627394.162653</v>
+        <v>1206944535.512313</v>
       </c>
     </row>
     <row r="46">
@@ -939,10 +939,10 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>1382.309806724544</v>
+        <v>1212.488974079326</v>
       </c>
       <c r="C46" t="n">
-        <v>1382309806.724544</v>
+        <v>1212488974.079326</v>
       </c>
     </row>
     <row r="47">
@@ -950,10 +950,10 @@
         <v>0.09</v>
       </c>
       <c r="B47" t="n">
-        <v>1386.902922805205</v>
+        <v>1217.933765210626</v>
       </c>
       <c r="C47" t="n">
-        <v>1386902922.805205</v>
+        <v>1217933765.210626</v>
       </c>
     </row>
     <row r="48">
@@ -961,10 +961,10 @@
         <v>0.092</v>
       </c>
       <c r="B48" t="n">
-        <v>1391.410364077257</v>
+        <v>1223.282849899236</v>
       </c>
       <c r="C48" t="n">
-        <v>1391410364.077257</v>
+        <v>1223282849.899235</v>
       </c>
     </row>
     <row r="49">
@@ -972,10 +972,10 @@
         <v>0.094</v>
       </c>
       <c r="B49" t="n">
-        <v>1395.835530835821</v>
+        <v>1228.539931888726</v>
       </c>
       <c r="C49" t="n">
-        <v>1395835530.835821</v>
+        <v>1228539931.888726</v>
       </c>
     </row>
     <row r="50">
@@ -983,10 +983,10 @@
         <v>0.096</v>
       </c>
       <c r="B50" t="n">
-        <v>1400.181619892924</v>
+        <v>1233.708496649371</v>
       </c>
       <c r="C50" t="n">
-        <v>1400181619.892924</v>
+        <v>1233708496.649371</v>
       </c>
     </row>
     <row r="51">
@@ -994,10 +994,10 @@
         <v>0.098</v>
       </c>
       <c r="B51" t="n">
-        <v>1404.451640687292</v>
+        <v>1238.791828476534</v>
       </c>
       <c r="C51" t="n">
-        <v>1404451640.687292</v>
+        <v>1238791828.476534</v>
       </c>
     </row>
     <row r="52">
@@ -1005,10 +1005,10 @@
         <v>0.1</v>
       </c>
       <c r="B52" t="n">
-        <v>1408.648429819895</v>
+        <v>1243.793025931302</v>
       </c>
       <c r="C52" t="n">
-        <v>1408648429.819896</v>
+        <v>1243793025.931302</v>
       </c>
     </row>
     <row r="53">
@@ -1016,10 +1016,10 @@
         <v>0.102</v>
       </c>
       <c r="B53" t="n">
-        <v>1412.774664197121</v>
+        <v>1248.715015813732</v>
       </c>
       <c r="C53" t="n">
-        <v>1412774664.197121</v>
+        <v>1248715015.813732</v>
       </c>
     </row>
     <row r="54">
@@ -1027,10 +1027,10 @@
         <v>0.104</v>
       </c>
       <c r="B54" t="n">
-        <v>1416.832872939333</v>
+        <v>1253.560565833942</v>
       </c>
       <c r="C54" t="n">
-        <v>1416832872.939333</v>
+        <v>1253560565.833942</v>
       </c>
     </row>
     <row r="55">
@@ -1038,10 +1038,10 @@
         <v>0.106</v>
       </c>
       <c r="B55" t="n">
-        <v>1420.825448192048</v>
+        <v>1258.332296124899</v>
       </c>
       <c r="C55" t="n">
-        <v>1420825448.192049</v>
+        <v>1258332296.124899</v>
       </c>
     </row>
     <row r="56">
@@ -1049,10 +1049,10 @@
         <v>0.108</v>
       </c>
       <c r="B56" t="n">
-        <v>1424.754654959431</v>
+        <v>1263.032689722452</v>
       </c>
       <c r="C56" t="n">
-        <v>1424754654.959431</v>
+        <v>1263032689.722452</v>
       </c>
     </row>
     <row r="57">
@@ -1060,10 +1060,10 @@
         <v>0.11</v>
       </c>
       <c r="B57" t="n">
-        <v>1428.622640064783</v>
+        <v>1267.664102122508</v>
       </c>
       <c r="C57" t="n">
-        <v>1428622640.064783</v>
+        <v>1267664102.122508</v>
       </c>
     </row>
     <row r="58">
@@ -1071,10 +1071,10 @@
         <v>0.112</v>
       </c>
       <c r="B58" t="n">
-        <v>1432.431440329854</v>
+        <v>1272.22877001177</v>
       </c>
       <c r="C58" t="n">
-        <v>1432431440.329854</v>
+        <v>1272228770.01177</v>
       </c>
     </row>
     <row r="59">
@@ -1082,10 +1082,10 @@
         <v>0.114</v>
       </c>
       <c r="B59" t="n">
-        <v>1436.182990053633</v>
+        <v>1276.728819256886</v>
       </c>
       <c r="C59" t="n">
-        <v>1436182990.053633</v>
+        <v>1276728819.256886</v>
       </c>
     </row>
     <row r="60">
@@ -1093,10 +1093,10 @@
         <v>0.116</v>
       </c>
       <c r="B60" t="n">
-        <v>1439.879127861769</v>
+        <v>1281.166272226774</v>
       </c>
       <c r="C60" t="n">
-        <v>1439879127.861769</v>
+        <v>1281166272.226774</v>
       </c>
     </row>
     <row r="61">
@@ -1104,10 +1104,10 @@
         <v>0.118</v>
       </c>
       <c r="B61" t="n">
-        <v>1443.521602989376</v>
+        <v>1285.543054514254</v>
       </c>
       <c r="C61" t="n">
-        <v>1443521602.989376</v>
+        <v>1285543054.514254</v>
       </c>
     </row>
     <row r="62">
@@ -1115,10 +1115,10 @@
         <v>0.12</v>
       </c>
       <c r="B62" t="n">
-        <v>1447.112081052843</v>
+        <v>1289.86100111551</v>
       </c>
       <c r="C62" t="n">
-        <v>1447112081.052843</v>
+        <v>1289861001.11551</v>
       </c>
     </row>
     <row r="63">
@@ -1126,10 +1126,10 @@
         <v>0.122</v>
       </c>
       <c r="B63" t="n">
-        <v>1450.652149359924</v>
+        <v>1294.12186211937</v>
       </c>
       <c r="C63" t="n">
-        <v>1450652149.359924</v>
+        <v>1294121862.11937</v>
       </c>
     </row>
     <row r="64">
@@ -1137,10 +1137,10 @@
         <v>0.124</v>
       </c>
       <c r="B64" t="n">
-        <v>1454.143321801956</v>
+        <v>1298.327307952616</v>
       </c>
       <c r="C64" t="n">
-        <v>1454143321.801956</v>
+        <v>1298327307.952616</v>
       </c>
     </row>
     <row r="65">
@@ -1148,10 +1148,10 @@
         <v>0.126</v>
       </c>
       <c r="B65" t="n">
-        <v>1457.587043367223</v>
+        <v>1302.478934222518</v>
       </c>
       <c r="C65" t="n">
-        <v>1457587043.367223</v>
+        <v>1302478934.222518</v>
       </c>
     </row>
     <row r="66">
@@ -1159,10 +1159,10 @@
         <v>0.128</v>
       </c>
       <c r="B66" t="n">
-        <v>1460.984694310298</v>
+        <v>1306.578266193385</v>
       </c>
       <c r="C66" t="n">
-        <v>1460984694.310298</v>
+        <v>1306578266.193385</v>
       </c>
     </row>
     <row r="67">
@@ -1170,10 +1170,10 @@
         <v>0.13</v>
       </c>
       <c r="B67" t="n">
-        <v>1464.337594008504</v>
+        <v>1310.626762930025</v>
       </c>
       <c r="C67" t="n">
-        <v>1464337594.008504</v>
+        <v>1310626762.930025</v>
       </c>
     </row>
     <row r="68">
@@ -1181,10 +1181,10 @@
         <v>0.132</v>
       </c>
       <c r="B68" t="n">
-        <v>1467.647004533386</v>
+        <v>1314.625821137619</v>
       </c>
       <c r="C68" t="n">
-        <v>1467647004.533386</v>
+        <v>1314625821.137619</v>
       </c>
     </row>
     <row r="69">
@@ -1192,10 +1192,10 @@
         <v>0.134</v>
       </c>
       <c r="B69" t="n">
-        <v>1470.914133962201</v>
+        <v>1318.57677872447</v>
       </c>
       <c r="C69" t="n">
-        <v>1470914133.962201</v>
+        <v>1318576778.72447</v>
       </c>
     </row>
     <row r="70">
@@ -1203,10 +1203,10 @@
         <v>0.136</v>
       </c>
       <c r="B70" t="n">
-        <v>1474.140139451938</v>
+        <v>1322.48091811145</v>
       </c>
       <c r="C70" t="n">
-        <v>1474140139.451938</v>
+        <v>1322480918.11145</v>
       </c>
     </row>
     <row r="71">
@@ -1214,10 +1214,10 @@
         <v>0.138</v>
       </c>
       <c r="B71" t="n">
-        <v>1477.326130096079</v>
+        <v>1326.339469309574</v>
       </c>
       <c r="C71" t="n">
-        <v>1477326130.096079</v>
+        <v>1326339469.309574</v>
       </c>
     </row>
     <row r="72">
@@ -1225,10 +1225,10 @@
         <v>0.14</v>
       </c>
       <c r="B72" t="n">
-        <v>1480.47316958239</v>
+        <v>1330.15361278506</v>
       </c>
       <c r="C72" t="n">
-        <v>1480473169.58239</v>
+        <v>1330153612.78506</v>
       </c>
     </row>
     <row r="73">
@@ -1236,10 +1236,10 @@
         <v>0.142</v>
       </c>
       <c r="B73" t="n">
-        <v>1483.582278668179</v>
+        <v>1333.924482129356</v>
       </c>
       <c r="C73" t="n">
-        <v>1483582278.668179</v>
+        <v>1333924482.129356</v>
       </c>
     </row>
     <row r="74">
@@ -1247,10 +1247,10 @@
         <v>0.144</v>
       </c>
       <c r="B74" t="n">
-        <v>1486.654437487977</v>
+        <v>1337.653166549943</v>
       </c>
       <c r="C74" t="n">
-        <v>1486654437.487977</v>
+        <v>1337653166.549943</v>
       </c>
     </row>
     <row r="75">
@@ -1258,10 +1258,10 @@
         <v>0.146</v>
       </c>
       <c r="B75" t="n">
-        <v>1489.690587707091</v>
+        <v>1341.34071319626</v>
       </c>
       <c r="C75" t="n">
-        <v>1489690587.707091</v>
+        <v>1341340713.19626</v>
       </c>
     </row>
     <row r="76">
@@ -1269,10 +1269,10 @@
         <v>0.148</v>
       </c>
       <c r="B76" t="n">
-        <v>1492.691634533317</v>
+        <v>1344.988129333753</v>
       </c>
       <c r="C76" t="n">
-        <v>1492691634.533318</v>
+        <v>1344988129.333754</v>
       </c>
     </row>
     <row r="77">
@@ -1280,10 +1280,10 @@
         <v>0.15</v>
       </c>
       <c r="B77" t="n">
-        <v>1495.658448597898</v>
+        <v>1348.596384377879</v>
       </c>
       <c r="C77" t="n">
-        <v>1495658448.597898</v>
+        <v>1348596384.377879</v>
       </c>
     </row>
     <row r="78">
@@ -1291,10 +1291,10 @@
         <v>0.152</v>
       </c>
       <c r="B78" t="n">
-        <v>1498.59186771586</v>
+        <v>1352.166411798806</v>
       </c>
       <c r="C78" t="n">
-        <v>1498591867.71586</v>
+        <v>1352166411.798806</v>
       </c>
     </row>
     <row r="79">
@@ -1302,10 +1302,10 @@
         <v>0.154</v>
       </c>
       <c r="B79" t="n">
-        <v>1501.492698534935</v>
+        <v>1355.699110906633</v>
       </c>
       <c r="C79" t="n">
-        <v>1501492698.534935</v>
+        <v>1355699110.906633</v>
       </c>
     </row>
     <row r="80">
@@ -1313,10 +1313,10 @@
         <v>0.156</v>
       </c>
       <c r="B80" t="n">
-        <v>1504.361718081451</v>
+        <v>1359.19534852605</v>
       </c>
       <c r="C80" t="n">
-        <v>1504361718.081451</v>
+        <v>1359195348.52605</v>
       </c>
     </row>
     <row r="81">
@@ -1324,10 +1324,10 @@
         <v>0.158</v>
       </c>
       <c r="B81" t="n">
-        <v>1507.199675210877</v>
+        <v>1362.655960568619</v>
       </c>
       <c r="C81" t="n">
-        <v>1507199675.210877</v>
+        <v>1362655960.568619</v>
       </c>
     </row>
     <row r="82">
@@ -1335,10 +1335,10 @@
         <v>0.16</v>
       </c>
       <c r="B82" t="n">
-        <v>1510.007291970001</v>
+        <v>1366.081753510134</v>
       </c>
       <c r="C82" t="n">
-        <v>1510007291.970001</v>
+        <v>1366081753.510134</v>
       </c>
     </row>
     <row r="83">
@@ -1346,10 +1346,10 @@
         <v>0.162</v>
       </c>
       <c r="B83" t="n">
-        <v>1512.78526487718</v>
+        <v>1369.473505779911</v>
       </c>
       <c r="C83" t="n">
-        <v>1512785264.87718</v>
+        <v>1369473505.779911</v>
       </c>
     </row>
     <row r="84">
@@ -1357,10 +1357,10 @@
         <v>0.164</v>
       </c>
       <c r="B84" t="n">
-        <v>1515.534266126517</v>
+        <v>1372.831969068262</v>
       </c>
       <c r="C84" t="n">
-        <v>1515534266.126518</v>
+        <v>1372831969.068262</v>
       </c>
     </row>
     <row r="85">
@@ -1368,10 +1368,10 @@
         <v>0.166</v>
       </c>
       <c r="B85" t="n">
-        <v>1518.254944721349</v>
+        <v>1376.157869557906</v>
       </c>
       <c r="C85" t="n">
-        <v>1518254944.721349</v>
+        <v>1376157869.557906</v>
       </c>
     </row>
     <row r="86">
@@ -1379,10 +1379,10 @@
         <v>0.168</v>
       </c>
       <c r="B86" t="n">
-        <v>1520.947927542001</v>
+        <v>1379.451909084617</v>
       </c>
       <c r="C86" t="n">
-        <v>1520947927.542001</v>
+        <v>1379451909.084617</v>
       </c>
     </row>
     <row r="87">
@@ -1390,10 +1390,10 @@
         <v>0.17</v>
       </c>
       <c r="B87" t="n">
-        <v>1523.613820352343</v>
+        <v>1382.714766231931</v>
       </c>
       <c r="C87" t="n">
-        <v>1523613820.352343</v>
+        <v>1382714766.231931</v>
       </c>
     </row>
     <row r="88">
@@ -1401,10 +1401,10 @@
         <v>0.172</v>
       </c>
       <c r="B88" t="n">
-        <v>1526.253208749339</v>
+        <v>1385.947097364424</v>
       </c>
       <c r="C88" t="n">
-        <v>1526253208.749339</v>
+        <v>1385947097.364424</v>
       </c>
     </row>
     <row r="89">
@@ -1412,10 +1412,10 @@
         <v>0.174</v>
       </c>
       <c r="B89" t="n">
-        <v>1528.86665905942</v>
+        <v>1389.149537603646</v>
       </c>
       <c r="C89" t="n">
-        <v>1528866659.05942</v>
+        <v>1389149537.603647</v>
       </c>
     </row>
     <row r="90">
@@ -1423,10 +1423,10 @@
         <v>0.176</v>
       </c>
       <c r="B90" t="n">
-        <v>1531.454719185253</v>
+        <v>1392.322701750538</v>
       </c>
       <c r="C90" t="n">
-        <v>1531454719.185253</v>
+        <v>1392322701.750538</v>
       </c>
     </row>
     <row r="91">
@@ -1434,10 +1434,10 @@
         <v>0.178</v>
       </c>
       <c r="B91" t="n">
-        <v>1534.017919406165</v>
+        <v>1395.467185157815</v>
       </c>
       <c r="C91" t="n">
-        <v>1534017919.406165</v>
+        <v>1395467185.157815</v>
       </c>
     </row>
     <row r="92">
@@ -1445,10 +1445,10 @@
         <v>0.18</v>
       </c>
       <c r="B92" t="n">
-        <v>1536.556773135255</v>
+        <v>1398.583564555578</v>
       </c>
       <c r="C92" t="n">
-        <v>1536556773.135255</v>
+        <v>1398583564.555578</v>
       </c>
     </row>
     <row r="93">
@@ -1456,10 +1456,10 @@
         <v>0.182</v>
       </c>
       <c r="B93" t="n">
-        <v>1539.071777635982</v>
+        <v>1401.672398833139</v>
       </c>
       <c r="C93" t="n">
-        <v>1539071777.635983</v>
+        <v>1401672398.833139</v>
       </c>
     </row>
     <row r="94">
@@ -1467,10 +1467,10 @@
         <v>0.184</v>
       </c>
       <c r="B94" t="n">
-        <v>1541.563414700826</v>
+        <v>1404.734229779839</v>
       </c>
       <c r="C94" t="n">
-        <v>1541563414.700826</v>
+        <v>1404734229.779839</v>
       </c>
     </row>
     <row r="95">
@@ -1478,10 +1478,10 @@
         <v>0.186</v>
       </c>
       <c r="B95" t="n">
-        <v>1544.032151294409</v>
+        <v>1407.769582787427</v>
       </c>
       <c r="C95" t="n">
-        <v>1544032151.294409</v>
+        <v>1407769582.787427</v>
       </c>
     </row>
     <row r="96">
@@ -1489,10 +1489,10 @@
         <v>0.188</v>
       </c>
       <c r="B96" t="n">
-        <v>1546.478440163299</v>
+        <v>1410.778967516389</v>
       </c>
       <c r="C96" t="n">
-        <v>1546478440.163299</v>
+        <v>1410778967.516389</v>
       </c>
     </row>
     <row r="97">
@@ -1500,10 +1500,10 @@
         <v>0.19</v>
       </c>
       <c r="B97" t="n">
-        <v>1548.902720414565</v>
+        <v>1413.762878528434</v>
       </c>
       <c r="C97" t="n">
-        <v>1548902720.414565</v>
+        <v>1413762878.528434</v>
       </c>
     </row>
     <row r="98">
@@ -1511,10 +1511,10 @@
         <v>0.192</v>
       </c>
       <c r="B98" t="n">
-        <v>1551.305418064976</v>
+        <v>1416.721795887197</v>
       </c>
       <c r="C98" t="n">
-        <v>1551305418.064976</v>
+        <v>1416721795.887197</v>
       </c>
     </row>
     <row r="99">
@@ -1522,10 +1522,10 @@
         <v>0.194</v>
       </c>
       <c r="B99" t="n">
-        <v>1553.68694656264</v>
+        <v>1419.656185729063</v>
       </c>
       <c r="C99" t="n">
-        <v>1553686946.56264</v>
+        <v>1419656185.729063</v>
       </c>
     </row>
     <row r="100">
@@ -1533,10 +1533,10 @@
         <v>0.196</v>
       </c>
       <c r="B100" t="n">
-        <v>1556.047707282727</v>
+        <v>1422.566500805898</v>
       </c>
       <c r="C100" t="n">
-        <v>1556047707.282727</v>
+        <v>1422566500.805898</v>
       </c>
     </row>
     <row r="101">
@@ -1544,10 +1544,10 @@
         <v>0.198</v>
       </c>
       <c r="B101" t="n">
-        <v>1558.388089998811</v>
+        <v>1425.45318100133</v>
       </c>
       <c r="C101" t="n">
-        <v>1558388089.998811</v>
+        <v>1425453181.00133</v>
       </c>
     </row>
     <row r="102">
@@ -1555,10 +1555,10 @@
         <v>0.2</v>
       </c>
       <c r="B102" t="n">
-        <v>1560.708473331264</v>
+        <v>1428.316653822132</v>
       </c>
       <c r="C102" t="n">
-        <v>1560708473.331264</v>
+        <v>1428316653.822132</v>
       </c>
     </row>
     <row r="103">
@@ -1566,10 +1566,10 @@
         <v>0.202</v>
       </c>
       <c r="B103" t="n">
-        <v>1563.009225174041</v>
+        <v>1431.157334866135</v>
       </c>
       <c r="C103" t="n">
-        <v>1563009225.174041</v>
+        <v>1431157334.866135</v>
       </c>
     </row>
     <row r="104">
@@ -1577,10 +1577,10 @@
         <v>0.204</v>
       </c>
       <c r="B104" t="n">
-        <v>1565.290703101091</v>
+        <v>1433.975628268021</v>
       </c>
       <c r="C104" t="n">
-        <v>1565290703.101091</v>
+        <v>1433975628.268021</v>
       </c>
     </row>
     <row r="105">
@@ -1588,10 +1588,10 @@
         <v>0.206</v>
       </c>
       <c r="B105" t="n">
-        <v>1567.553254753567</v>
+        <v>1436.771927124236</v>
       </c>
       <c r="C105" t="n">
-        <v>1567553254.753567</v>
+        <v>1436771927.124236</v>
       </c>
     </row>
     <row r="106">
@@ -1599,10 +1599,10 @@
         <v>0.208</v>
       </c>
       <c r="B106" t="n">
-        <v>1569.797218208902</v>
+        <v>1439.546613898207</v>
       </c>
       <c r="C106" t="n">
-        <v>1569797218.208902</v>
+        <v>1439546613.898207</v>
       </c>
     </row>
     <row r="107">
@@ -1610,10 +1610,10 @@
         <v>0.21</v>
       </c>
       <c r="B107" t="n">
-        <v>1572.022922332787</v>
+        <v>1442.300060806944</v>
       </c>
       <c r="C107" t="n">
-        <v>1572022922.332787</v>
+        <v>1442300060.806944</v>
       </c>
     </row>
     <row r="108">
@@ -1621,10 +1621,10 @@
         <v>0.212</v>
       </c>
       <c r="B108" t="n">
-        <v>1574.230687114979</v>
+        <v>1445.032630190053</v>
       </c>
       <c r="C108" t="n">
-        <v>1574230687.114979</v>
+        <v>1445032630.190053</v>
       </c>
     </row>
     <row r="109">
@@ -1632,10 +1632,10 @@
         <v>0.214</v>
       </c>
       <c r="B109" t="n">
-        <v>1576.420823989832</v>
+        <v>1447.744674862127</v>
       </c>
       <c r="C109" t="n">
-        <v>1576420823.989832</v>
+        <v>1447744674.862127</v>
       </c>
     </row>
     <row r="110">
@@ -1643,10 +1643,10 @@
         <v>0.216</v>
       </c>
       <c r="B110" t="n">
-        <v>1578.593636142392</v>
+        <v>1450.436538449393</v>
       </c>
       <c r="C110" t="n">
-        <v>1578593636.142392</v>
+        <v>1450436538.449393</v>
       </c>
     </row>
     <row r="111">
@@ -1654,10 +1654,10 @@
         <v>0.218</v>
       </c>
       <c r="B111" t="n">
-        <v>1580.749418800813</v>
+        <v>1453.108555711482</v>
       </c>
       <c r="C111" t="n">
-        <v>1580749418.800813</v>
+        <v>1453108555.711482</v>
       </c>
     </row>
     <row r="112">
@@ -1665,10 +1665,10 @@
         <v>0.22</v>
       </c>
       <c r="B112" t="n">
-        <v>1582.888459515842</v>
+        <v>1455.761052849081</v>
       </c>
       <c r="C112" t="n">
-        <v>1582888459.515842</v>
+        <v>1455761052.849081</v>
       </c>
     </row>
     <row r="113">
@@ -1676,10 +1676,10 @@
         <v>0.222</v>
       </c>
       <c r="B113" t="n">
-        <v>1585.01103842805</v>
+        <v>1458.394347798235</v>
       </c>
       <c r="C113" t="n">
-        <v>1585011038.42805</v>
+        <v>1458394347.798235</v>
       </c>
     </row>
     <row r="114">
@@ -1687,10 +1687,10 @@
         <v>0.224</v>
       </c>
       <c r="B114" t="n">
-        <v>1587.117428523445</v>
+        <v>1461.008750511974</v>
       </c>
       <c r="C114" t="n">
-        <v>1587117428.523445</v>
+        <v>1461008750.511974</v>
       </c>
     </row>
     <row r="115">
@@ -1698,10 +1698,10 @@
         <v>0.226</v>
       </c>
       <c r="B115" t="n">
-        <v>1589.207895878089</v>
+        <v>1463.604563229925</v>
       </c>
       <c r="C115" t="n">
-        <v>1589207895.878089</v>
+        <v>1463604563.229925</v>
       </c>
     </row>
     <row r="116">
@@ -1709,10 +1709,10 @@
         <v>0.228</v>
       </c>
       <c r="B116" t="n">
-        <v>1591.282699892258</v>
+        <v>1466.182080736527</v>
       </c>
       <c r="C116" t="n">
-        <v>1591282699.892258</v>
+        <v>1466182080.736527</v>
       </c>
     </row>
     <row r="117">
@@ -1720,10 +1720,10 @@
         <v>0.23</v>
       </c>
       <c r="B117" t="n">
-        <v>1593.342093514705</v>
+        <v>1468.741590608426</v>
       </c>
       <c r="C117" t="n">
-        <v>1593342093.514705</v>
+        <v>1468741590.608426</v>
       </c>
     </row>
     <row r="118">
@@ -1731,10 +1731,10 @@
         <v>0.232</v>
       </c>
       <c r="B118" t="n">
-        <v>1595.386323457511</v>
+        <v>1471.283373451575</v>
       </c>
       <c r="C118" t="n">
-        <v>1595386323.45751</v>
+        <v>1471283373.451575</v>
       </c>
     </row>
     <row r="119">
@@ -1742,10 +1742,10 @@
         <v>0.234</v>
       </c>
       <c r="B119" t="n">
-        <v>1597.415630401998</v>
+        <v>1473.807703128584</v>
       </c>
       <c r="C119" t="n">
-        <v>1597415630.401998</v>
+        <v>1473807703.128584</v>
       </c>
     </row>
     <row r="120">
@@ -1753,10 +1753,10 @@
         <v>0.236</v>
       </c>
       <c r="B120" t="n">
-        <v>1599.430249196159</v>
+        <v>1476.314846976773</v>
       </c>
       <c r="C120" t="n">
-        <v>1599430249.196159</v>
+        <v>1476314846.976774</v>
       </c>
     </row>
     <row r="121">
@@ -1764,10 +1764,10 @@
         <v>0.238</v>
       </c>
       <c r="B121" t="n">
-        <v>1601.430409044005</v>
+        <v>1478.805066017399</v>
       </c>
       <c r="C121" t="n">
-        <v>1601430409.044005</v>
+        <v>1478805066.017399</v>
       </c>
     </row>
     <row r="122">
@@ -1775,10 +1775,10 @@
         <v>0.24</v>
       </c>
       <c r="B122" t="n">
-        <v>1603.416333687242</v>
+        <v>1481.278615156471</v>
       </c>
       <c r="C122" t="n">
-        <v>1603416333.687242</v>
+        <v>1481278615.156471</v>
       </c>
     </row>
     <row r="123">
@@ -1786,10 +1786,10 @@
         <v>0.242</v>
       </c>
       <c r="B123" t="n">
-        <v>1605.388241579639</v>
+        <v>1483.735743377581</v>
       </c>
       <c r="C123" t="n">
-        <v>1605388241.579639</v>
+        <v>1483735743.377581</v>
       </c>
     </row>
     <row r="124">
@@ -1797,10 +1797,10 @@
         <v>0.244</v>
       </c>
       <c r="B124" t="n">
-        <v>1607.346346054446</v>
+        <v>1486.176693927104</v>
       </c>
       <c r="C124" t="n">
-        <v>1607346346.054446</v>
+        <v>1486176693.927104</v>
       </c>
     </row>
     <row r="125">
@@ -1808,10 +1808,10 @@
         <v>0.246</v>
       </c>
       <c r="B125" t="n">
-        <v>1609.290855485187</v>
+        <v>1488.601704492148</v>
       </c>
       <c r="C125" t="n">
-        <v>1609290855.485187</v>
+        <v>1488601704.492148</v>
       </c>
     </row>
     <row r="126">
@@ -1819,10 +1819,10 @@
         <v>0.248</v>
       </c>
       <c r="B126" t="n">
-        <v>1611.22197344014</v>
+        <v>1491.011007371594</v>
       </c>
       <c r="C126" t="n">
-        <v>1611221973.44014</v>
+        <v>1491011007.371594</v>
       </c>
     </row>
     <row r="127">
@@ -1830,10 +1830,10 @@
         <v>0.25</v>
       </c>
       <c r="B127" t="n">
-        <v>1613.139898830817</v>
+        <v>1493.404829640528</v>
       </c>
       <c r="C127" t="n">
-        <v>1613139898.830817</v>
+        <v>1493404829.640528</v>
       </c>
     </row>
     <row r="128">
@@ -1841,10 +1841,10 @@
         <v>0.252</v>
       </c>
       <c r="B128" t="n">
-        <v>1615.044826054698</v>
+        <v>1495.783393308403</v>
       </c>
       <c r="C128" t="n">
-        <v>1615044826.054698</v>
+        <v>1495783393.308403</v>
       </c>
     </row>
     <row r="129">
@@ -1852,10 +1852,10 @@
         <v>0.254</v>
       </c>
       <c r="B129" t="n">
-        <v>1616.936945132501</v>
+        <v>1498.146915471182</v>
       </c>
       <c r="C129" t="n">
-        <v>1616936945.132501</v>
+        <v>1498146915.471182</v>
       </c>
     </row>
     <row r="130">
@@ -1863,10 +1863,10 @@
         <v>0.256</v>
       </c>
       <c r="B130" t="n">
-        <v>1618.816441840246</v>
+        <v>1500.495608457768</v>
       </c>
       <c r="C130" t="n">
-        <v>1618816441.840246</v>
+        <v>1500495608.457768</v>
       </c>
     </row>
     <row r="131">
@@ -1874,10 +1874,10 @@
         <v>0.258</v>
       </c>
       <c r="B131" t="n">
-        <v>1620.683497836317</v>
+        <v>1502.829679970958</v>
       </c>
       <c r="C131" t="n">
-        <v>1620683497.836317</v>
+        <v>1502829679.970958</v>
       </c>
     </row>
     <row r="132">
@@ -1885,10 +1885,10 @@
         <v>0.26</v>
       </c>
       <c r="B132" t="n">
-        <v>1622.538290783794</v>
+        <v>1505.149333223176</v>
       </c>
       <c r="C132" t="n">
-        <v>1622538290.783794</v>
+        <v>1505149333.223176</v>
       </c>
     </row>
     <row r="133">
@@ -1896,10 +1896,10 @@
         <v>0.262</v>
       </c>
       <c r="B133" t="n">
-        <v>1624.380994468223</v>
+        <v>1507.454767067208</v>
       </c>
       <c r="C133" t="n">
-        <v>1624380994.468223</v>
+        <v>1507454767.067209</v>
       </c>
     </row>
     <row r="134">
@@ -1907,10 +1907,10 @@
         <v>0.264</v>
       </c>
       <c r="B134" t="n">
-        <v>1626.211778911054</v>
+        <v>1509.746176122176</v>
       </c>
       <c r="C134" t="n">
-        <v>1626211778.911054</v>
+        <v>1509746176.122176</v>
       </c>
     </row>
     <row r="135">
@@ -1918,10 +1918,10 @@
         <v>0.266</v>
       </c>
       <c r="B135" t="n">
-        <v>1628.030810478935</v>
+        <v>1512.023750894939</v>
       </c>
       <c r="C135" t="n">
-        <v>1628030810.478935</v>
+        <v>1512023750.894939</v>
       </c>
     </row>
     <row r="136">
@@ -1929,10 +1929,10 @@
         <v>0.268</v>
       </c>
       <c r="B136" t="n">
-        <v>1629.838251989028</v>
+        <v>1514.287677897133</v>
       </c>
       <c r="C136" t="n">
-        <v>1629838251.989028</v>
+        <v>1514287677.897133</v>
       </c>
     </row>
     <row r="137">
@@ -1940,10 +1940,10 @@
         <v>0.27</v>
       </c>
       <c r="B137" t="n">
-        <v>1631.634262810539</v>
+        <v>1516.538139758039</v>
       </c>
       <c r="C137" t="n">
-        <v>1631634262.810539</v>
+        <v>1516538139.758039</v>
       </c>
     </row>
     <row r="138">
@@ -1951,10 +1951,10 @@
         <v>0.272</v>
       </c>
       <c r="B138" t="n">
-        <v>1633.418998962614</v>
+        <v>1518.775315333446</v>
       </c>
       <c r="C138" t="n">
-        <v>1633418998.962614</v>
+        <v>1518775315.333446</v>
       </c>
     </row>
     <row r="139">
@@ -1962,10 +1962,10 @@
         <v>0.274</v>
       </c>
       <c r="B139" t="n">
-        <v>1635.192613208756</v>
+        <v>1520.999379810688</v>
       </c>
       <c r="C139" t="n">
-        <v>1635192613.208755</v>
+        <v>1520999379.810688</v>
       </c>
     </row>
     <row r="140">
@@ -1973,10 +1973,10 @@
         <v>0.276</v>
       </c>
       <c r="B140" t="n">
-        <v>1636.955255147922</v>
+        <v>1523.210504810021</v>
       </c>
       <c r="C140" t="n">
-        <v>1636955255.147922</v>
+        <v>1523210504.810021</v>
       </c>
     </row>
     <row r="141">
@@ -1984,10 +1984,10 @@
         <v>0.278</v>
       </c>
       <c r="B141" t="n">
-        <v>1638.707071302426</v>
+        <v>1525.408858482476</v>
       </c>
       <c r="C141" t="n">
-        <v>1638707071.302426</v>
+        <v>1525408858.482476</v>
       </c>
     </row>
     <row r="142">
@@ -1995,10 +1995,10 @@
         <v>0.28</v>
       </c>
       <c r="B142" t="n">
-        <v>1640.44820520279</v>
+        <v>1527.594605604357</v>
       </c>
       <c r="C142" t="n">
-        <v>1640448205.20279</v>
+        <v>1527594605.604357</v>
       </c>
     </row>
     <row r="143">
@@ -2006,10 +2006,10 @@
         <v>0.282</v>
       </c>
       <c r="B143" t="n">
-        <v>1642.17879746967</v>
+        <v>1529.767907668499</v>
       </c>
       <c r="C143" t="n">
-        <v>1642178797.46967</v>
+        <v>1529767907.668499</v>
       </c>
     </row>
     <row r="144">
@@ -2017,10 +2017,10 @@
         <v>0.284</v>
       </c>
       <c r="B144" t="n">
-        <v>1643.898985892973</v>
+        <v>1531.928922972446</v>
       </c>
       <c r="C144" t="n">
-        <v>1643898985.892973</v>
+        <v>1531928922.972446</v>
       </c>
     </row>
     <row r="145">
@@ -2028,10 +2028,10 @@
         <v>0.286</v>
       </c>
       <c r="B145" t="n">
-        <v>1645.608905508287</v>
+        <v>1534.077806703639</v>
       </c>
       <c r="C145" t="n">
-        <v>1645608905.508287</v>
+        <v>1534077806.703639</v>
       </c>
     </row>
     <row r="146">
@@ -2039,10 +2039,10 @@
         <v>0.288</v>
       </c>
       <c r="B146" t="n">
-        <v>1647.308688670725</v>
+        <v>1536.214711021774</v>
       </c>
       <c r="C146" t="n">
-        <v>1647308688.670725</v>
+        <v>1536214711.021774</v>
       </c>
     </row>
     <row r="147">
@@ -2050,10 +2050,10 @@
         <v>0.29</v>
       </c>
       <c r="B147" t="n">
-        <v>1648.9984651263</v>
+        <v>1538.339785138412</v>
       </c>
       <c r="C147" t="n">
-        <v>1648998465.1263</v>
+        <v>1538339785.138412</v>
       </c>
     </row>
     <row r="148">
@@ -2061,10 +2061,10 @@
         <v>0.292</v>
       </c>
       <c r="B148" t="n">
-        <v>1650.678362080911</v>
+        <v>1540.45317539397</v>
       </c>
       <c r="C148" t="n">
-        <v>1650678362.080911</v>
+        <v>1540453175.39397</v>
       </c>
     </row>
     <row r="149">
@@ -2072,10 +2072,10 @@
         <v>0.294</v>
       </c>
       <c r="B149" t="n">
-        <v>1652.34850426706</v>
+        <v>1542.555025332186</v>
       </c>
       <c r="C149" t="n">
-        <v>1652348504.26706</v>
+        <v>1542555025.332186</v>
       </c>
     </row>
     <row r="150">
@@ -2083,10 +2083,10 @@
         <v>0.296</v>
       </c>
       <c r="B150" t="n">
-        <v>1654.009014008366</v>
+        <v>1544.64547577216</v>
       </c>
       <c r="C150" t="n">
-        <v>1654009014.008366</v>
+        <v>1544645475.77216</v>
       </c>
     </row>
     <row r="151">
@@ -2094,10 +2094,10 @@
         <v>0.298</v>
       </c>
       <c r="B151" t="n">
-        <v>1655.66001128198</v>
+        <v>1546.724664878072</v>
       </c>
       <c r="C151" t="n">
-        <v>1655660011.28198</v>
+        <v>1546724664.878072</v>
       </c>
     </row>
     <row r="152">
@@ -2105,10 +2105,10 @@
         <v>0.3</v>
       </c>
       <c r="B152" t="n">
-        <v>1657.301613778974</v>
+        <v>1548.792728226654</v>
       </c>
       <c r="C152" t="n">
-        <v>1657301613.778974</v>
+        <v>1548792728.226654</v>
       </c>
     </row>
     <row r="153">
@@ -2116,10 +2116,10 @@
         <v>0.302</v>
       </c>
       <c r="B153" t="n">
-        <v>1658.933936962786</v>
+        <v>1550.84979887252</v>
       </c>
       <c r="C153" t="n">
-        <v>1658933936.962786</v>
+        <v>1550849798.87252</v>
       </c>
     </row>
     <row r="154">
@@ -2127,10 +2127,10 @@
         <v>0.304</v>
       </c>
       <c r="B154" t="n">
-        <v>1660.557094125795</v>
+        <v>1552.896007411415</v>
       </c>
       <c r="C154" t="n">
-        <v>1660557094.125795</v>
+        <v>1552896007.411415</v>
       </c>
     </row>
     <row r="155">
@@ -2138,10 +2138,10 @@
         <v>0.306</v>
       </c>
       <c r="B155" t="n">
-        <v>1662.171196444095</v>
+        <v>1554.931482041485</v>
       </c>
       <c r="C155" t="n">
-        <v>1662171196.444095</v>
+        <v>1554931482.041485</v>
       </c>
     </row>
     <row r="156">
@@ -2149,10 +2149,10 @@
         <v>0.308</v>
       </c>
       <c r="B156" t="n">
-        <v>1663.776353030549</v>
+        <v>1556.95634862262</v>
       </c>
       <c r="C156" t="n">
-        <v>1663776353.030549</v>
+        <v>1556956348.62262</v>
       </c>
     </row>
     <row r="157">
@@ -2160,10 +2160,10 @@
         <v>0.31</v>
       </c>
       <c r="B157" t="n">
-        <v>1665.372670986167</v>
+        <v>1558.970730733964</v>
       </c>
       <c r="C157" t="n">
-        <v>1665372670.986167</v>
+        <v>1558970730.733964</v>
       </c>
     </row>
     <row r="158">
@@ -2171,10 +2171,10 @@
         <v>0.312</v>
       </c>
       <c r="B158" t="n">
-        <v>1666.960255449889</v>
+        <v>1560.974749729643</v>
       </c>
       <c r="C158" t="n">
-        <v>1666960255.449889</v>
+        <v>1560974749.729643</v>
       </c>
     </row>
     <row r="159">
@@ -2182,10 +2182,10 @@
         <v>0.314</v>
       </c>
       <c r="B159" t="n">
-        <v>1668.539209646826</v>
+        <v>1562.968524792784</v>
       </c>
       <c r="C159" t="n">
-        <v>1668539209.646826</v>
+        <v>1562968524.792784</v>
       </c>
     </row>
     <row r="160">
@@ -2193,10 +2193,10 @@
         <v>0.316</v>
       </c>
       <c r="B160" t="n">
-        <v>1670.109634935016</v>
+        <v>1564.952172987895</v>
       </c>
       <c r="C160" t="n">
-        <v>1670109634.935016</v>
+        <v>1564952172.987895</v>
       </c>
     </row>
     <row r="161">
@@ -2204,10 +2204,10 @@
         <v>0.318</v>
       </c>
       <c r="B161" t="n">
-        <v>1671.671630850748</v>
+        <v>1566.925809311646</v>
       </c>
       <c r="C161" t="n">
-        <v>1671671630.850748</v>
+        <v>1566925809.311646</v>
       </c>
     </row>
     <row r="162">
@@ -2215,10 +2215,10 @@
         <v>0.32</v>
       </c>
       <c r="B162" t="n">
-        <v>1673.22529515251</v>
+        <v>1568.889546742138</v>
       </c>
       <c r="C162" t="n">
-        <v>1673225295.15251</v>
+        <v>1568889546.742138</v>
       </c>
     </row>
     <row r="163">
@@ -2226,10 +2226,10 @@
         <v>0.322</v>
       </c>
       <c r="B163" t="n">
-        <v>1674.770723863613</v>
+        <v>1570.843496286684</v>
       </c>
       <c r="C163" t="n">
-        <v>1674770723.863613</v>
+        <v>1570843496.286684</v>
       </c>
     </row>
     <row r="164">
@@ -2237,10 +2237,10 @@
         <v>0.324</v>
       </c>
       <c r="B164" t="n">
-        <v>1676.308011313533</v>
+        <v>1572.78776702818</v>
       </c>
       <c r="C164" t="n">
-        <v>1676308011.313533</v>
+        <v>1572787767.02818</v>
       </c>
     </row>
     <row r="165">
@@ -2248,10 +2248,10 @@
         <v>0.326</v>
       </c>
       <c r="B165" t="n">
-        <v>1677.837250178016</v>
+        <v>1574.7224661701</v>
       </c>
       <c r="C165" t="n">
-        <v>1677837250.178016</v>
+        <v>1574722466.1701</v>
       </c>
     </row>
     <row r="166">
@@ -2259,10 +2259,10 @@
         <v>0.328</v>
       </c>
       <c r="B166" t="n">
-        <v>1679.358531518001</v>
+        <v>1576.647699080176</v>
       </c>
       <c r="C166" t="n">
-        <v>1679358531.518001</v>
+        <v>1576647699.080176</v>
       </c>
     </row>
     <row r="167">
@@ -2270,10 +2270,10 @@
         <v>0.33</v>
       </c>
       <c r="B167" t="n">
-        <v>1680.871944817396</v>
+        <v>1578.563569332797</v>
       </c>
       <c r="C167" t="n">
-        <v>1680871944.817396</v>
+        <v>1578563569.332797</v>
       </c>
     </row>
     <row r="168">
@@ -2281,10 +2281,10 @@
         <v>0.332</v>
       </c>
       <c r="B168" t="n">
-        <v>1682.377578019736</v>
+        <v>1580.470178750183</v>
       </c>
       <c r="C168" t="n">
-        <v>1682377578.019736</v>
+        <v>1580470178.750183</v>
       </c>
     </row>
     <row r="169">
@@ -2292,10 +2292,10 @@
         <v>0.334</v>
       </c>
       <c r="B169" t="n">
-        <v>1683.875517563794</v>
+        <v>1582.367627442374</v>
       </c>
       <c r="C169" t="n">
-        <v>1683875517.563794</v>
+        <v>1582367627.442374</v>
       </c>
     </row>
     <row r="170">
@@ -2303,10 +2303,10 @@
         <v>0.336</v>
       </c>
       <c r="B170" t="n">
-        <v>1685.365848418141</v>
+        <v>1584.256013846065</v>
       </c>
       <c r="C170" t="n">
-        <v>1685365848.418141</v>
+        <v>1584256013.846065</v>
       </c>
     </row>
     <row r="171">
@@ -2314,10 +2314,10 @@
         <v>0.338</v>
       </c>
       <c r="B171" t="n">
-        <v>1686.848654114724</v>
+        <v>1586.135434762344</v>
       </c>
       <c r="C171" t="n">
-        <v>1686848654.114724</v>
+        <v>1586135434.762344</v>
       </c>
     </row>
     <row r="172">
@@ -2325,10 +2325,10 @@
         <v>0.34</v>
       </c>
       <c r="B172" t="n">
-        <v>1688.324016781484</v>
+        <v>1588.005985393355</v>
       </c>
       <c r="C172" t="n">
-        <v>1688324016.781484</v>
+        <v>1588005985.393355</v>
       </c>
     </row>
     <row r="173">
@@ -2336,10 +2336,10 @@
         <v>0.342</v>
       </c>
       <c r="B173" t="n">
-        <v>1689.792017174037</v>
+        <v>1589.867759377931</v>
       </c>
       <c r="C173" t="n">
-        <v>1689792017.174037</v>
+        <v>1589867759.377931</v>
       </c>
     </row>
     <row r="174">
@@ -2347,10 +2347,10 @@
         <v>0.344</v>
       </c>
       <c r="B174" t="n">
-        <v>1691.252734706472</v>
+        <v>1591.720848826234</v>
       </c>
       <c r="C174" t="n">
-        <v>1691252734.706471</v>
+        <v>1591720848.826234</v>
       </c>
     </row>
     <row r="175">
@@ -2358,10 +2358,10 @@
         <v>0.346</v>
       </c>
       <c r="B175" t="n">
-        <v>1692.706247481274</v>
+        <v>1593.56534435342</v>
       </c>
       <c r="C175" t="n">
-        <v>1692706247.481273</v>
+        <v>1593565344.35342</v>
       </c>
     </row>
     <row r="176">
@@ -2369,10 +2369,10 @@
         <v>0.348</v>
       </c>
       <c r="B176" t="n">
-        <v>1694.152632318416</v>
+        <v>1595.401335112389</v>
       </c>
       <c r="C176" t="n">
-        <v>1694152632.318416</v>
+        <v>1595401335.112389</v>
       </c>
     </row>
     <row r="177">
@@ -2380,10 +2380,10 @@
         <v>0.35</v>
       </c>
       <c r="B177" t="n">
-        <v>1695.591964783642</v>
+        <v>1597.228908825616</v>
       </c>
       <c r="C177" t="n">
-        <v>1695591964.783642</v>
+        <v>1597228908.825616</v>
       </c>
     </row>
     <row r="178">
@@ -2391,10 +2391,10 @@
         <v>0.352</v>
       </c>
       <c r="B178" t="n">
-        <v>1697.024319215967</v>
+        <v>1599.048151816126</v>
       </c>
       <c r="C178" t="n">
-        <v>1697024319.215967</v>
+        <v>1599048151.816126</v>
       </c>
     </row>
     <row r="179">
@@ -2402,10 +2402,10 @@
         <v>0.354</v>
       </c>
       <c r="B179" t="n">
-        <v>1698.449768754423</v>
+        <v>1600.859149037623</v>
       </c>
       <c r="C179" t="n">
-        <v>1698449768.754423</v>
+        <v>1600859149.037623</v>
       </c>
     </row>
     <row r="180">
@@ -2413,10 +2413,10 @@
         <v>0.356</v>
       </c>
       <c r="B180" t="n">
-        <v>1699.868385364077</v>
+        <v>1602.661984103797</v>
       </c>
       <c r="C180" t="n">
-        <v>1699868385.364077</v>
+        <v>1602661984.103797</v>
       </c>
     </row>
     <row r="181">
@@ -2424,10 +2424,10 @@
         <v>0.358</v>
       </c>
       <c r="B181" t="n">
-        <v>1701.280239861337</v>
+        <v>1604.456739316851</v>
       </c>
       <c r="C181" t="n">
-        <v>1701280239.861337</v>
+        <v>1604456739.316851</v>
       </c>
     </row>
     <row r="182">
@@ -2435,10 +2435,10 @@
         <v>0.36</v>
       </c>
       <c r="B182" t="n">
-        <v>1702.68540193858</v>
+        <v>1606.243495695265</v>
       </c>
       <c r="C182" t="n">
-        <v>1702685401.93858</v>
+        <v>1606243495.695266</v>
       </c>
     </row>
     <row r="183">
@@ -2446,10 +2446,10 @@
         <v>0.362</v>
       </c>
       <c r="B183" t="n">
-        <v>1704.083940188116</v>
+        <v>1608.022333000819</v>
       </c>
       <c r="C183" t="n">
-        <v>1704083940.188116</v>
+        <v>1608022333.000819</v>
       </c>
     </row>
     <row r="184">
@@ -2457,10 +2457,10 @@
         <v>0.364</v>
       </c>
       <c r="B184" t="n">
-        <v>1705.475922125511</v>
+        <v>1609.793329764897</v>
       </c>
       <c r="C184" t="n">
-        <v>1705475922.125511</v>
+        <v>1609793329.764897</v>
       </c>
     </row>
     <row r="185">
@@ -2468,10 +2468,10 @@
         <v>0.366</v>
       </c>
       <c r="B185" t="n">
-        <v>1706.861414212292</v>
+        <v>1611.556563314111</v>
       </c>
       <c r="C185" t="n">
-        <v>1706861414.212292</v>
+        <v>1611556563.314111</v>
       </c>
     </row>
     <row r="186">
@@ -2479,10 +2479,10 @@
         <v>0.368</v>
       </c>
       <c r="B186" t="n">
-        <v>1708.240481878056</v>
+        <v>1613.312109795244</v>
       </c>
       <c r="C186" t="n">
-        <v>1708240481.878056</v>
+        <v>1613312109.795244</v>
       </c>
     </row>
     <row r="187">
@@ -2490,10 +2490,10 @@
         <v>0.37</v>
       </c>
       <c r="B187" t="n">
-        <v>1709.613189541988</v>
+        <v>1615.06004419955</v>
       </c>
       <c r="C187" t="n">
-        <v>1709613189.541988</v>
+        <v>1615060044.19955</v>
       </c>
     </row>
     <row r="188">
@@ -2501,10 +2501,10 @@
         <v>0.372</v>
       </c>
       <c r="B188" t="n">
-        <v>1710.979600633827</v>
+        <v>1616.800440386421</v>
       </c>
       <c r="C188" t="n">
-        <v>1710979600.633827</v>
+        <v>1616800440.386421</v>
       </c>
     </row>
     <row r="189">
@@ -2512,10 +2512,10 @@
         <v>0.374</v>
       </c>
       <c r="B189" t="n">
-        <v>1712.339777614281</v>
+        <v>1618.53337110645</v>
       </c>
       <c r="C189" t="n">
-        <v>1712339777.614281</v>
+        <v>1618533371.10645</v>
       </c>
     </row>
     <row r="190">
@@ -2523,10 +2523,10 @@
         <v>0.376</v>
       </c>
       <c r="B190" t="n">
-        <v>1713.693781994918</v>
+        <v>1620.258908023899</v>
       </c>
       <c r="C190" t="n">
-        <v>1713693781.994919</v>
+        <v>1620258908.023899</v>
       </c>
     </row>
     <row r="191">
@@ -2534,10 +2534,10 @@
         <v>0.378</v>
       </c>
       <c r="B191" t="n">
-        <v>1715.041674357542</v>
+        <v>1621.977121738596</v>
       </c>
       <c r="C191" t="n">
-        <v>1715041674.357542</v>
+        <v>1621977121.738596</v>
       </c>
     </row>
     <row r="192">
@@ -2545,10 +2545,10 @@
         <v>0.38</v>
       </c>
       <c r="B192" t="n">
-        <v>1716.383514373074</v>
+        <v>1623.688081807284</v>
       </c>
       <c r="C192" t="n">
-        <v>1716383514.373074</v>
+        <v>1623688081.807284</v>
       </c>
     </row>
     <row r="193">
@@ -2556,10 +2556,10 @@
         <v>0.382</v>
       </c>
       <c r="B193" t="n">
-        <v>1717.719360819956</v>
+        <v>1625.391856764417</v>
       </c>
       <c r="C193" t="n">
-        <v>1717719360.819956</v>
+        <v>1625391856.764417</v>
       </c>
     </row>
     <row r="194">
@@ -2567,10 +2567,10 @@
         <v>0.384</v>
       </c>
       <c r="B194" t="n">
-        <v>1719.049271602086</v>
+        <v>1627.088514142453</v>
       </c>
       <c r="C194" t="n">
-        <v>1719049271.602086</v>
+        <v>1627088514.142453</v>
       </c>
     </row>
     <row r="195">
@@ -2578,10 +2578,10 @@
         <v>0.386</v>
       </c>
       <c r="B195" t="n">
-        <v>1720.373303766298</v>
+        <v>1628.778120491627</v>
       </c>
       <c r="C195" t="n">
-        <v>1720373303.766298</v>
+        <v>1628778120.491627</v>
       </c>
     </row>
     <row r="196">
@@ -2589,10 +2589,10 @@
         <v>0.388</v>
       </c>
       <c r="B196" t="n">
-        <v>1721.691513519416</v>
+        <v>1630.460741399239</v>
       </c>
       <c r="C196" t="n">
-        <v>1721691513.519416</v>
+        <v>1630460741.399239</v>
       </c>
     </row>
     <row r="197">
@@ -2600,10 +2600,10 @@
         <v>0.39</v>
       </c>
       <c r="B197" t="n">
-        <v>1723.003956244866</v>
+        <v>1632.136441508468</v>
       </c>
       <c r="C197" t="n">
-        <v>1723003956.244866</v>
+        <v>1632136441.508468</v>
       </c>
     </row>
     <row r="198">
@@ -2611,10 +2611,10 @@
         <v>0.392</v>
       </c>
       <c r="B198" t="n">
-        <v>1724.310686518891</v>
+        <v>1633.805284536722</v>
       </c>
       <c r="C198" t="n">
-        <v>1724310686.518891</v>
+        <v>1633805284.536722</v>
       </c>
     </row>
     <row r="199">
@@ -2622,10 +2622,10 @@
         <v>0.394</v>
       </c>
       <c r="B199" t="n">
-        <v>1725.611758126358</v>
+        <v>1635.467333293535</v>
       </c>
       <c r="C199" t="n">
-        <v>1725611758.126358</v>
+        <v>1635467333.293535</v>
       </c>
     </row>
     <row r="200">
@@ -2633,10 +2633,10 @@
         <v>0.396</v>
       </c>
       <c r="B200" t="n">
-        <v>1726.907224076179</v>
+        <v>1637.122649698039</v>
       </c>
       <c r="C200" t="n">
-        <v>1726907224.076179</v>
+        <v>1637122649.698039</v>
       </c>
     </row>
     <row r="201">
@@ -2644,10 +2644,10 @@
         <v>0.398</v>
       </c>
       <c r="B201" t="n">
-        <v>1728.197136616356</v>
+        <v>1638.771294796007</v>
       </c>
       <c r="C201" t="n">
-        <v>1728197136.616356</v>
+        <v>1638771294.796007</v>
       </c>
     </row>
     <row r="202">
@@ -2655,10 +2655,10 @@
         <v>0.4</v>
       </c>
       <c r="B202" t="n">
-        <v>1729.481547248659</v>
+        <v>1640.413328776484</v>
       </c>
       <c r="C202" t="n">
-        <v>1729481547.248659</v>
+        <v>1640413328.776484</v>
       </c>
     </row>
     <row r="203">
@@ -2666,10 +2666,10 @@
         <v>0.402</v>
       </c>
       <c r="B203" t="n">
-        <v>1730.760506742949</v>
+        <v>1642.048810988028</v>
       </c>
       <c r="C203" t="n">
-        <v>1730760506.742949</v>
+        <v>1642048810.988028</v>
       </c>
     </row>
     <row r="204">
@@ -2677,10 +2677,10 @@
         <v>0.404</v>
       </c>
       <c r="B204" t="n">
-        <v>1732.03406515116</v>
+        <v>1643.677799954555</v>
       </c>
       <c r="C204" t="n">
-        <v>1732034065.15116</v>
+        <v>1643677799.954556</v>
       </c>
     </row>
     <row r="205">
@@ -2688,10 +2688,10 @@
         <v>0.406</v>
       </c>
       <c r="B205" t="n">
-        <v>1733.302271820943</v>
+        <v>1645.300353390816</v>
       </c>
       <c r="C205" t="n">
-        <v>1733302271.820943</v>
+        <v>1645300353.390816</v>
       </c>
     </row>
     <row r="206">
@@ -2699,10 +2699,10 @@
         <v>0.408</v>
       </c>
       <c r="B206" t="n">
-        <v>1734.565175408982</v>
+        <v>1646.916528217502</v>
       </c>
       <c r="C206" t="n">
-        <v>1734565175.408982</v>
+        <v>1646916528.217502</v>
       </c>
     </row>
     <row r="207">
@@ -2710,10 +2710,10 @@
         <v>0.41</v>
       </c>
       <c r="B207" t="n">
-        <v>1735.822823894003</v>
+        <v>1648.526380576003</v>
       </c>
       <c r="C207" t="n">
-        <v>1735822823.894003</v>
+        <v>1648526380.576003</v>
       </c>
     </row>
     <row r="208">
@@ -2721,10 +2721,10 @@
         <v>0.412</v>
       </c>
       <c r="B208" t="n">
-        <v>1737.075264589466</v>
+        <v>1650.129965842811</v>
       </c>
       <c r="C208" t="n">
-        <v>1737075264.589466</v>
+        <v>1650129965.842811</v>
       </c>
     </row>
     <row r="209">
@@ -2732,10 +2732,10 @@
         <v>0.414</v>
       </c>
       <c r="B209" t="n">
-        <v>1738.32254415597</v>
+        <v>1651.727338643601</v>
       </c>
       <c r="C209" t="n">
-        <v>1738322544.15597</v>
+        <v>1651727338.643601</v>
       </c>
     </row>
     <row r="210">
@@ -2743,10 +2743,10 @@
         <v>0.416</v>
       </c>
       <c r="B210" t="n">
-        <v>1739.564708613356</v>
+        <v>1653.318552866977</v>
       </c>
       <c r="C210" t="n">
-        <v>1739564708.613356</v>
+        <v>1653318552.866977</v>
       </c>
     </row>
     <row r="211">
@@ -2754,10 +2754,10 @@
         <v>0.418</v>
       </c>
       <c r="B211" t="n">
-        <v>1740.801803352537</v>
+        <v>1654.903661677904</v>
       </c>
       <c r="C211" t="n">
-        <v>1740801803.352537</v>
+        <v>1654903661.677904</v>
       </c>
     </row>
     <row r="212">
@@ -2765,10 +2765,10 @@
         <v>0.42</v>
       </c>
       <c r="B212" t="n">
-        <v>1742.033873147055</v>
+        <v>1656.482717530834</v>
       </c>
       <c r="C212" t="n">
-        <v>1742033873.147055</v>
+        <v>1656482717.530834</v>
       </c>
     </row>
     <row r="213">
@@ -2776,10 +2776,10 @@
         <v>0.422</v>
       </c>
       <c r="B213" t="n">
-        <v>1743.260962164366</v>
+        <v>1658.05577218253</v>
       </c>
       <c r="C213" t="n">
-        <v>1743260962.164366</v>
+        <v>1658055772.18253</v>
       </c>
     </row>
     <row r="214">
@@ -2787,10 +2787,10 @@
         <v>0.424</v>
       </c>
       <c r="B214" t="n">
-        <v>1744.483113976866</v>
+        <v>1659.622876704602</v>
       </c>
       <c r="C214" t="n">
-        <v>1744483113.976866</v>
+        <v>1659622876.704602</v>
       </c>
     </row>
     <row r="215">
@@ -2798,10 +2798,10 @@
         <v>0.426</v>
       </c>
       <c r="B215" t="n">
-        <v>1745.700371572677</v>
+        <v>1661.184081495759</v>
       </c>
       <c r="C215" t="n">
-        <v>1745700371.572677</v>
+        <v>1661184081.495759</v>
       </c>
     </row>
     <row r="216">
@@ -2809,10 +2809,10 @@
         <v>0.428</v>
       </c>
       <c r="B216" t="n">
-        <v>1746.912777366172</v>
+        <v>1662.739436293781</v>
       </c>
       <c r="C216" t="n">
-        <v>1746912777.366172</v>
+        <v>1662739436.293782</v>
       </c>
     </row>
     <row r="217">
@@ -2820,10 +2820,10 @@
         <v>0.43</v>
       </c>
       <c r="B217" t="n">
-        <v>1748.120373208273</v>
+        <v>1664.288990187233</v>
       </c>
       <c r="C217" t="n">
-        <v>1748120373.208273</v>
+        <v>1664288990.187233</v>
       </c>
     </row>
     <row r="218">
@@ -2831,10 +2831,10 @@
         <v>0.432</v>
       </c>
       <c r="B218" t="n">
-        <v>1749.323200396515</v>
+        <v>1665.832791626907</v>
       </c>
       <c r="C218" t="n">
-        <v>1749323200.396515</v>
+        <v>1665832791.626907</v>
       </c>
     </row>
     <row r="219">
@@ -2842,10 +2842,10 @@
         <v>0.434</v>
       </c>
       <c r="B219" t="n">
-        <v>1750.521299684882</v>
+        <v>1667.370888437017</v>
       </c>
       <c r="C219" t="n">
-        <v>1750521299.684882</v>
+        <v>1667370888.437017</v>
       </c>
     </row>
     <row r="220">
@@ -2853,10 +2853,10 @@
         <v>0.436</v>
       </c>
       <c r="B220" t="n">
-        <v>1751.714711293426</v>
+        <v>1668.903327826145</v>
       </c>
       <c r="C220" t="n">
-        <v>1751714711.293426</v>
+        <v>1668903327.826145</v>
       </c>
     </row>
     <row r="221">
@@ -2864,10 +2864,10 @@
         <v>0.438</v>
       </c>
       <c r="B221" t="n">
-        <v>1752.903474917671</v>
+        <v>1670.43015639795</v>
       </c>
       <c r="C221" t="n">
-        <v>1752903474.917671</v>
+        <v>1670430156.39795</v>
       </c>
     </row>
     <row r="222">
@@ -2875,10 +2875,10 @@
         <v>0.44</v>
       </c>
       <c r="B222" t="n">
-        <v>1754.087629737815</v>
+        <v>1671.951420161635</v>
       </c>
       <c r="C222" t="n">
-        <v>1754087629.737815</v>
+        <v>1671951420.161635</v>
       </c>
     </row>
     <row r="223">
@@ -2886,10 +2886,10 @@
         <v>0.442</v>
       </c>
       <c r="B223" t="n">
-        <v>1755.267214427719</v>
+        <v>1673.467164542195</v>
       </c>
       <c r="C223" t="n">
-        <v>1755267214.427719</v>
+        <v>1673467164.542195</v>
       </c>
     </row>
     <row r="224">
@@ -2897,10 +2897,10 @@
         <v>0.444</v>
       </c>
       <c r="B224" t="n">
-        <v>1756.442267163708</v>
+        <v>1674.977434390436</v>
       </c>
       <c r="C224" t="n">
-        <v>1756442267.163708</v>
+        <v>1674977434.390436</v>
       </c>
     </row>
     <row r="225">
@@ -2908,10 +2908,10 @@
         <v>0.446</v>
       </c>
       <c r="B225" t="n">
-        <v>1757.61282563318</v>
+        <v>1676.482273992783</v>
       </c>
       <c r="C225" t="n">
-        <v>1757612825.63318</v>
+        <v>1676482273.992783</v>
       </c>
     </row>
     <row r="226">
@@ -2919,10 +2919,10 @@
         <v>0.448</v>
       </c>
       <c r="B226" t="n">
-        <v>1758.778927043022</v>
+        <v>1677.981727080873</v>
       </c>
       <c r="C226" t="n">
-        <v>1758778927.043022</v>
+        <v>1677981727.080873</v>
       </c>
     </row>
     <row r="227">
@@ -2930,10 +2930,10 @@
         <v>0.45</v>
       </c>
       <c r="B227" t="n">
-        <v>1759.940608127849</v>
+        <v>1679.475836840946</v>
       </c>
       <c r="C227" t="n">
-        <v>1759940608.127849</v>
+        <v>1679475836.840946</v>
       </c>
     </row>
     <row r="228">
@@ -2941,10 +2941,10 @@
         <v>0.452</v>
       </c>
       <c r="B228" t="n">
-        <v>1761.097905158067</v>
+        <v>1680.964645923038</v>
       </c>
       <c r="C228" t="n">
-        <v>1761097905.158067</v>
+        <v>1680964645.923038</v>
       </c>
     </row>
     <row r="229">
@@ -2952,10 +2952,10 @@
         <v>0.454</v>
       </c>
       <c r="B229" t="n">
-        <v>1762.250853947757</v>
+        <v>1682.448196449969</v>
       </c>
       <c r="C229" t="n">
-        <v>1762250853.947757</v>
+        <v>1682448196.449969</v>
       </c>
     </row>
     <row r="230">
@@ -2963,10 +2963,10 @@
         <v>0.456</v>
       </c>
       <c r="B230" t="n">
-        <v>1763.399489862402</v>
+        <v>1683.926530026158</v>
       </c>
       <c r="C230" t="n">
-        <v>1763399489.862402</v>
+        <v>1683926530.026158</v>
       </c>
     </row>
     <row r="231">
@@ -2974,10 +2974,10 @@
         <v>0.458</v>
       </c>
       <c r="B231" t="n">
-        <v>1764.543847826437</v>
+        <v>1685.399687746236</v>
       </c>
       <c r="C231" t="n">
-        <v>1764543847.826437</v>
+        <v>1685399687.746236</v>
       </c>
     </row>
     <row r="232">
@@ -2985,10 +2985,10 @@
         <v>0.46</v>
       </c>
       <c r="B232" t="n">
-        <v>1765.683962330647</v>
+        <v>1686.867710203489</v>
       </c>
       <c r="C232" t="n">
-        <v>1765683962.330647</v>
+        <v>1686867710.20349</v>
       </c>
     </row>
     <row r="233">
@@ -2996,10 +2996,10 @@
         <v>0.462</v>
       </c>
       <c r="B233" t="n">
-        <v>1766.819867439414</v>
+        <v>1688.330637498127</v>
       </c>
       <c r="C233" t="n">
-        <v>1766819867.439414</v>
+        <v>1688330637.498127</v>
       </c>
     </row>
     <row r="234">
@@ -3007,10 +3007,10 @@
         <v>0.464</v>
       </c>
       <c r="B234" t="n">
-        <v>1767.951596797797</v>
+        <v>1689.788509245367</v>
       </c>
       <c r="C234" t="n">
-        <v>1767951596.797797</v>
+        <v>1689788509.245367</v>
       </c>
     </row>
     <row r="235">
@@ -3018,10 +3018,10 @@
         <v>0.466</v>
       </c>
       <c r="B235" t="n">
-        <v>1769.079183638484</v>
+        <v>1691.241364583371</v>
       </c>
       <c r="C235" t="n">
-        <v>1769079183.638484</v>
+        <v>1691241364.583371</v>
       </c>
     </row>
     <row r="236">
@@ -3029,10 +3029,10 @@
         <v>0.468</v>
       </c>
       <c r="B236" t="n">
-        <v>1770.20266078858</v>
+        <v>1692.689242181</v>
       </c>
       <c r="C236" t="n">
-        <v>1770202660.78858</v>
+        <v>1692689242.181</v>
       </c>
     </row>
     <row r="237">
@@ -3040,10 +3040,10 @@
         <v>0.47</v>
       </c>
       <c r="B237" t="n">
-        <v>1771.322060676271</v>
+        <v>1694.132180245424</v>
       </c>
       <c r="C237" t="n">
-        <v>1771322060.676271</v>
+        <v>1694132180.245424</v>
       </c>
     </row>
     <row r="238">
@@ -3051,10 +3051,10 @@
         <v>0.472</v>
       </c>
       <c r="B238" t="n">
-        <v>1772.437415337341</v>
+        <v>1695.570216529569</v>
       </c>
       <c r="C238" t="n">
-        <v>1772437415.337341</v>
+        <v>1695570216.529569</v>
       </c>
     </row>
     <row r="239">
@@ -3062,10 +3062,10 @@
         <v>0.474</v>
       </c>
       <c r="B239" t="n">
-        <v>1773.548756421559</v>
+        <v>1697.003388339415</v>
       </c>
       <c r="C239" t="n">
-        <v>1773548756.421559</v>
+        <v>1697003388.339415</v>
       </c>
     </row>
     <row r="240">
@@ -3073,10 +3073,10 @@
         <v>0.476</v>
       </c>
       <c r="B240" t="n">
-        <v>1774.656115198935</v>
+        <v>1698.431732541148</v>
       </c>
       <c r="C240" t="n">
-        <v>1774656115.198935</v>
+        <v>1698431732.541147</v>
       </c>
     </row>
     <row r="241">
@@ -3084,10 +3084,10 @@
         <v>0.478</v>
       </c>
       <c r="B241" t="n">
-        <v>1775.759522565848</v>
+        <v>1699.855285568165</v>
       </c>
       <c r="C241" t="n">
-        <v>1775759522.565848</v>
+        <v>1699855285.568165</v>
       </c>
     </row>
     <row r="242">
@@ -3095,10 +3095,10 @@
         <v>0.48</v>
       </c>
       <c r="B242" t="n">
-        <v>1776.859009051053</v>
+        <v>1701.274083427943</v>
       </c>
       <c r="C242" t="n">
-        <v>1776859009.051053</v>
+        <v>1701274083.427943</v>
       </c>
     </row>
     <row r="243">
@@ -3106,10 +3106,10 @@
         <v>0.482</v>
       </c>
       <c r="B243" t="n">
-        <v>1777.95460482156</v>
+        <v>1702.688161708765</v>
       </c>
       <c r="C243" t="n">
-        <v>1777954604.82156</v>
+        <v>1702688161.708765</v>
       </c>
     </row>
     <row r="244">
@@ -3117,10 +3117,10 @@
         <v>0.484</v>
       </c>
       <c r="B244" t="n">
-        <v>1779.046339688407</v>
+        <v>1704.09755558632</v>
       </c>
       <c r="C244" t="n">
-        <v>1779046339.688406</v>
+        <v>1704097555.58632</v>
       </c>
     </row>
     <row r="245">
@@ -3128,10 +3128,10 @@
         <v>0.486</v>
       </c>
       <c r="B245" t="n">
-        <v>1780.134243112301</v>
+        <v>1705.502299830164</v>
       </c>
       <c r="C245" t="n">
-        <v>1780134243.112301</v>
+        <v>1705502299.830164</v>
       </c>
     </row>
     <row r="246">
@@ -3139,10 +3139,10 @@
         <v>0.488</v>
       </c>
       <c r="B246" t="n">
-        <v>1781.218344209165</v>
+        <v>1706.902428810059</v>
       </c>
       <c r="C246" t="n">
-        <v>1781218344.209165</v>
+        <v>1706902428.810059</v>
       </c>
     </row>
     <row r="247">
@@ -3150,10 +3150,10 @@
         <v>0.49</v>
       </c>
       <c r="B247" t="n">
-        <v>1782.29867175556</v>
+        <v>1708.297976502186</v>
       </c>
       <c r="C247" t="n">
-        <v>1782298671.755559</v>
+        <v>1708297976.502186</v>
       </c>
     </row>
     <row r="248">
@@ -3161,10 +3161,10 @@
         <v>0.492</v>
       </c>
       <c r="B248" t="n">
-        <v>1783.375254194005</v>
+        <v>1709.688976495238</v>
       </c>
       <c r="C248" t="n">
-        <v>1783375254.194005</v>
+        <v>1709688976.495238</v>
       </c>
     </row>
     <row r="249">
@@ -3172,10 +3172,10 @@
         <v>0.494</v>
       </c>
       <c r="B249" t="n">
-        <v>1784.4481196382</v>
+        <v>1711.075461996391</v>
       </c>
       <c r="C249" t="n">
-        <v>1784448119.6382</v>
+        <v>1711075461.996391</v>
       </c>
     </row>
     <row r="250">
@@ -3183,10 +3183,10 @@
         <v>0.496</v>
       </c>
       <c r="B250" t="n">
-        <v>1785.517295878132</v>
+        <v>1712.457465837165</v>
       </c>
       <c r="C250" t="n">
-        <v>1785517295.878132</v>
+        <v>1712457465.837165</v>
       </c>
     </row>
     <row r="251">
@@ -3194,10 +3194,10 @@
         <v>0.498</v>
       </c>
       <c r="B251" t="n">
-        <v>1786.582810385093</v>
+        <v>1713.835020479163</v>
       </c>
       <c r="C251" t="n">
-        <v>1786582810.385093</v>
+        <v>1713835020.479163</v>
       </c>
     </row>
     <row r="252">
@@ -3205,10 +3205,10 @@
         <v>0.5</v>
       </c>
       <c r="B252" t="n">
-        <v>1787.644690316597</v>
+        <v>1715.208158019708</v>
       </c>
       <c r="C252" t="n">
-        <v>1787644690.316597</v>
+        <v>1715208158.019708</v>
       </c>
     </row>
     <row r="253">
@@ -3216,10 +3216,10 @@
         <v>0.505</v>
       </c>
       <c r="B253" t="n">
-        <v>1790.283664323841</v>
+        <v>1718.621884468348</v>
       </c>
       <c r="C253" t="n">
-        <v>1790283664.323841</v>
+        <v>1718621884.468348</v>
       </c>
     </row>
     <row r="254">
@@ -3227,10 +3227,10 @@
         <v>0.51</v>
       </c>
       <c r="B254" t="n">
-        <v>1792.900500490512</v>
+        <v>1722.008687794785</v>
       </c>
       <c r="C254" t="n">
-        <v>1792900500.490512</v>
+        <v>1722008687.794785</v>
       </c>
     </row>
     <row r="255">
@@ -3238,10 +3238,10 @@
         <v>0.515</v>
       </c>
       <c r="B255" t="n">
-        <v>1795.495598660631</v>
+        <v>1725.369041067466</v>
       </c>
       <c r="C255" t="n">
-        <v>1795495598.66063</v>
+        <v>1725369041.067466</v>
       </c>
     </row>
     <row r="256">
@@ -3249,10 +3249,10 @@
         <v>0.52</v>
       </c>
       <c r="B256" t="n">
-        <v>1798.069347663473</v>
+        <v>1728.703404549637</v>
       </c>
       <c r="C256" t="n">
-        <v>1798069347.663473</v>
+        <v>1728703404.549637</v>
       </c>
     </row>
     <row r="257">
@@ -3260,10 +3260,10 @@
         <v>0.525</v>
       </c>
       <c r="B257" t="n">
-        <v>1800.622125719486</v>
+        <v>1732.01222616525</v>
       </c>
       <c r="C257" t="n">
-        <v>1800622125.719486</v>
+        <v>1732012226.16525</v>
       </c>
     </row>
     <row r="258">
@@ -3271,10 +3271,10 @@
         <v>0.53</v>
       </c>
       <c r="B258" t="n">
-        <v>1803.154300827543</v>
+        <v>1735.295941943656</v>
       </c>
       <c r="C258" t="n">
-        <v>1803154300.827543</v>
+        <v>1735295941.943656</v>
       </c>
     </row>
     <row r="259">
@@ -3282,10 +3282,10 @@
         <v>0.535</v>
       </c>
       <c r="B259" t="n">
-        <v>1805.666231134557</v>
+        <v>1738.554976444248</v>
       </c>
       <c r="C259" t="n">
-        <v>1805666231.134557</v>
+        <v>1738554976.444248</v>
       </c>
     </row>
     <row r="260">
@@ -3293,10 +3293,10 @@
         <v>0.54</v>
       </c>
       <c r="B260" t="n">
-        <v>1808.15826528842</v>
+        <v>1741.789743162131</v>
       </c>
       <c r="C260" t="n">
-        <v>1808158265.28842</v>
+        <v>1741789743.162131</v>
       </c>
     </row>
     <row r="261">
@@ -3304,10 +3304,10 @@
         <v>0.545</v>
       </c>
       <c r="B261" t="n">
-        <v>1810.630742775159</v>
+        <v>1745.000644915833</v>
       </c>
       <c r="C261" t="n">
-        <v>1810630742.775158</v>
+        <v>1745000644.915833</v>
       </c>
     </row>
     <row r="262">
@@ -3315,10 +3315,10 @@
         <v>0.55</v>
       </c>
       <c r="B262" t="n">
-        <v>1813.083994241151</v>
+        <v>1748.188074218017</v>
       </c>
       <c r="C262" t="n">
-        <v>1813083994.241151</v>
+        <v>1748188074.218017</v>
       </c>
     </row>
     <row r="263">
@@ -3326,10 +3326,10 @@
         <v>0.555</v>
       </c>
       <c r="B263" t="n">
-        <v>1815.518341801206</v>
+        <v>1751.352413630077</v>
       </c>
       <c r="C263" t="n">
-        <v>1815518341.801206</v>
+        <v>1751352413.630077</v>
       </c>
     </row>
     <row r="264">
@@ -3337,10 +3337,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B264" t="n">
-        <v>1817.934099333231</v>
+        <v>1754.494036101461</v>
       </c>
       <c r="C264" t="n">
-        <v>1817934099.333231</v>
+        <v>1754494036.101461</v>
       </c>
     </row>
     <row r="265">
@@ -3348,10 +3348,10 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="B265" t="n">
-        <v>1820.331572760199</v>
+        <v>1757.613305294511</v>
       </c>
       <c r="C265" t="n">
-        <v>1820331572.760199</v>
+        <v>1757613305.294511</v>
       </c>
     </row>
     <row r="266">
@@ -3359,10 +3359,10 @@
         <v>0.57</v>
       </c>
       <c r="B266" t="n">
-        <v>1822.711060320061</v>
+        <v>1760.710575895557</v>
       </c>
       <c r="C266" t="n">
-        <v>1822711060.320061</v>
+        <v>1760710575.895557</v>
       </c>
     </row>
     <row r="267">
@@ -3370,10 +3370,10 @@
         <v>0.575</v>
       </c>
       <c r="B267" t="n">
-        <v>1825.072852824224</v>
+        <v>1763.786193912959</v>
       </c>
       <c r="C267" t="n">
-        <v>1825072852.824224</v>
+        <v>1763786193.912959</v>
       </c>
     </row>
     <row r="268">
@@ -3381,10 +3381,10 @@
         <v>0.58</v>
       </c>
       <c r="B268" t="n">
-        <v>1827.417233905177</v>
+        <v>1766.840496962766</v>
       </c>
       <c r="C268" t="n">
-        <v>1827417233.905177</v>
+        <v>1766840496.962766</v>
       </c>
     </row>
     <row r="269">
@@ -3392,10 +3392,10 @@
         <v>0.585</v>
       </c>
       <c r="B269" t="n">
-        <v>1829.744480253798</v>
+        <v>1769.873814542588</v>
       </c>
       <c r="C269" t="n">
-        <v>1829744480.253798</v>
+        <v>1769873814.542588</v>
       </c>
     </row>
     <row r="270">
@@ -3403,10 +3403,10 @@
         <v>0.59</v>
       </c>
       <c r="B270" t="n">
-        <v>1832.054861846868</v>
+        <v>1772.886468294282</v>
       </c>
       <c r="C270" t="n">
-        <v>1832054861.846868</v>
+        <v>1772886468.294282</v>
       </c>
     </row>
     <row r="271">
@@ -3414,10 +3414,10 @@
         <v>0.595</v>
       </c>
       <c r="B271" t="n">
-        <v>1834.348642165277</v>
+        <v>1775.878772255992</v>
       </c>
       <c r="C271" t="n">
-        <v>1834348642.165277</v>
+        <v>1775878772.255992</v>
       </c>
     </row>
     <row r="272">
@@ -3425,10 +3425,10 @@
         <v>0.6</v>
       </c>
       <c r="B272" t="n">
-        <v>1836.626078403358</v>
+        <v>1778.851033104057</v>
       </c>
       <c r="C272" t="n">
-        <v>1836626078.403358</v>
+        <v>1778851033.104057</v>
       </c>
     </row>
     <row r="273">
@@ -3436,10 +3436,10 @@
         <v>0.605</v>
       </c>
       <c r="B273" t="n">
-        <v>1838.88742166981</v>
+        <v>1781.803550385277</v>
       </c>
       <c r="C273" t="n">
-        <v>1838887421.66981</v>
+        <v>1781803550.385277</v>
       </c>
     </row>
     <row r="274">
@@ -3447,10 +3447,10 @@
         <v>0.61</v>
       </c>
       <c r="B274" t="n">
-        <v>1841.132917180585</v>
+        <v>1784.736616740007</v>
       </c>
       <c r="C274" t="n">
-        <v>1841132917.180585</v>
+        <v>1784736616.740007</v>
       </c>
     </row>
     <row r="275">
@@ -3458,10 +3458,10 @@
         <v>0.615</v>
       </c>
       <c r="B275" t="n">
-        <v>1843.362804444148</v>
+        <v>1787.650518116496</v>
       </c>
       <c r="C275" t="n">
-        <v>1843362804.444148</v>
+        <v>1787650518.116496</v>
       </c>
     </row>
     <row r="276">
@@ -3469,10 +3469,10 @@
         <v>0.62</v>
       </c>
       <c r="B276" t="n">
-        <v>1845.57731743945</v>
+        <v>1790.545533976893</v>
       </c>
       <c r="C276" t="n">
-        <v>1845577317.43945</v>
+        <v>1790545533.976893</v>
       </c>
     </row>
     <row r="277">
@@ -3480,10 +3480,10 @@
         <v>0.625</v>
       </c>
       <c r="B277" t="n">
-        <v>1847.776684786974</v>
+        <v>1793.421937495314</v>
       </c>
       <c r="C277" t="n">
-        <v>1847776684.786974</v>
+        <v>1793421937.495314</v>
       </c>
     </row>
     <row r="278">
@@ -3491,10 +3491,10 @@
         <v>0.63</v>
       </c>
       <c r="B278" t="n">
-        <v>1849.961129913166</v>
+        <v>1796.279995748321</v>
       </c>
       <c r="C278" t="n">
-        <v>1849961129.913166</v>
+        <v>1796279995.748321</v>
       </c>
     </row>
     <row r="279">
@@ -3502,10 +3502,10 @@
         <v>0.635</v>
       </c>
       <c r="B279" t="n">
-        <v>1852.13087120856</v>
+        <v>1799.119969898175</v>
       </c>
       <c r="C279" t="n">
-        <v>1852130871.20856</v>
+        <v>1799119969.898175</v>
       </c>
     </row>
     <row r="280">
@@ -3513,10 +3513,10 @@
         <v>0.64</v>
       </c>
       <c r="B280" t="n">
-        <v>1854.286122179891</v>
+        <v>1801.942115369184</v>
       </c>
       <c r="C280" t="n">
-        <v>1854286122.179891</v>
+        <v>1801942115.369184</v>
       </c>
     </row>
     <row r="281">
@@ -3524,10 +3524,10 @@
         <v>0.645</v>
       </c>
       <c r="B281" t="n">
-        <v>1856.427091596456</v>
+        <v>1804.746682017469</v>
       </c>
       <c r="C281" t="n">
-        <v>1856427091.596456</v>
+        <v>1804746682.017469</v>
       </c>
     </row>
     <row r="282">
@@ -3535,10 +3535,10 @@
         <v>0.65</v>
       </c>
       <c r="B282" t="n">
-        <v>1858.553983631007</v>
+        <v>1807.533914294417</v>
       </c>
       <c r="C282" t="n">
-        <v>1858553983.631007</v>
+        <v>1807533914.294417</v>
       </c>
     </row>
     <row r="283">
@@ -3546,10 +3546,10 @@
         <v>0.655</v>
       </c>
       <c r="B283" t="n">
-        <v>1860.666997995391</v>
+        <v>1810.304051404141</v>
       </c>
       <c r="C283" t="n">
-        <v>1860666997.995391</v>
+        <v>1810304051.404141</v>
       </c>
     </row>
     <row r="284">
@@ -3557,10 +3557,10 @@
         <v>0.66</v>
       </c>
       <c r="B284" t="n">
-        <v>1862.766330071198</v>
+        <v>1813.057327455173</v>
       </c>
       <c r="C284" t="n">
-        <v>1862766330.071198</v>
+        <v>1813057327.455173</v>
       </c>
     </row>
     <row r="285">
@@ -3568,10 +3568,10 @@
         <v>0.665</v>
       </c>
       <c r="B285" t="n">
-        <v>1864.852171035617</v>
+        <v>1815.793971606667</v>
       </c>
       <c r="C285" t="n">
-        <v>1864852171.035617</v>
+        <v>1815793971.606667</v>
       </c>
     </row>
     <row r="286">
@@ -3579,10 +3579,10 @@
         <v>0.67</v>
       </c>
       <c r="B286" t="n">
-        <v>1866.924707982728</v>
+        <v>1818.514208209343</v>
       </c>
       <c r="C286" t="n">
-        <v>1866924707.982728</v>
+        <v>1818514208.209343</v>
       </c>
     </row>
     <row r="287">
@@ -3590,10 +3590,10 @@
         <v>0.675</v>
       </c>
       <c r="B287" t="n">
-        <v>1868.98412404041</v>
+        <v>1821.218256941397</v>
       </c>
       <c r="C287" t="n">
-        <v>1868984124.04041</v>
+        <v>1821218256.941397</v>
       </c>
     </row>
     <row r="288">
@@ -3601,10 +3601,10 @@
         <v>0.68</v>
       </c>
       <c r="B288" t="n">
-        <v>1871.030598483071</v>
+        <v>1823.906332939591</v>
       </c>
       <c r="C288" t="n">
-        <v>1871030598.483071</v>
+        <v>1823906332.939591</v>
       </c>
     </row>
     <row r="289">
@@ -3612,10 +3612,10 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="B289" t="n">
-        <v>1873.064306840365</v>
+        <v>1826.578646925738</v>
       </c>
       <c r="C289" t="n">
-        <v>1873064306.840365</v>
+        <v>1826578646.925738</v>
       </c>
     </row>
     <row r="290">
@@ -3623,10 +3623,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="B290" t="n">
-        <v>1875.08542100208</v>
+        <v>1829.235405328771</v>
       </c>
       <c r="C290" t="n">
-        <v>1875085421.002079</v>
+        <v>1829235405.328771</v>
       </c>
     </row>
     <row r="291">
@@ -3634,10 +3634,10 @@
         <v>0.695</v>
       </c>
       <c r="B291" t="n">
-        <v>1877.094109319345</v>
+        <v>1831.876810402566</v>
       </c>
       <c r="C291" t="n">
-        <v>1877094109.319345</v>
+        <v>1831876810.402566</v>
       </c>
     </row>
     <row r="292">
@@ -3645,10 +3645,10 @@
         <v>0.7</v>
       </c>
       <c r="B292" t="n">
-        <v>1879.090536702329</v>
+        <v>1834.503060339725</v>
       </c>
       <c r="C292" t="n">
-        <v>1879090536.702329</v>
+        <v>1834503060.339725</v>
       </c>
     </row>
     <row r="293">
@@ -3656,10 +3656,10 @@
         <v>0.705</v>
       </c>
       <c r="B293" t="n">
-        <v>1881.074864714551</v>
+        <v>1837.114349381463</v>
       </c>
       <c r="C293" t="n">
-        <v>1881074864.714551</v>
+        <v>1837114349.381463</v>
       </c>
     </row>
     <row r="294">
@@ -3667,10 +3667,10 @@
         <v>0.71</v>
       </c>
       <c r="B294" t="n">
-        <v>1883.047251663971</v>
+        <v>1839.710867923765</v>
       </c>
       <c r="C294" t="n">
-        <v>1883047251.663971</v>
+        <v>1839710867.923765</v>
       </c>
     </row>
     <row r="295">
@@ -3678,10 +3678,10 @@
         <v>0.715</v>
       </c>
       <c r="B295" t="n">
-        <v>1885.007852690969</v>
+        <v>1842.292802619967</v>
       </c>
       <c r="C295" t="n">
-        <v>1885007852.690969</v>
+        <v>1842292802.619967</v>
       </c>
     </row>
     <row r="296">
@@ -3689,10 +3689,10 @@
         <v>0.72</v>
       </c>
       <c r="B296" t="n">
-        <v>1886.956819853361</v>
+        <v>1844.860336479907</v>
       </c>
       <c r="C296" t="n">
-        <v>1886956819.853361</v>
+        <v>1844860336.479907</v>
       </c>
     </row>
     <row r="297">
@@ -3700,10 +3700,10 @@
         <v>0.725</v>
       </c>
       <c r="B297" t="n">
-        <v>1888.894302208549</v>
+        <v>1847.413648965776</v>
       </c>
       <c r="C297" t="n">
-        <v>1888894302.208549</v>
+        <v>1847413648.965776</v>
       </c>
     </row>
     <row r="298">
@@ -3711,10 +3711,10 @@
         <v>0.73</v>
       </c>
       <c r="B298" t="n">
-        <v>1890.820445892942</v>
+        <v>1849.952916084809</v>
       </c>
       <c r="C298" t="n">
-        <v>1890820445.892942</v>
+        <v>1849952916.084809</v>
       </c>
     </row>
     <row r="299">
@@ -3722,10 +3722,10 @@
         <v>0.735</v>
       </c>
       <c r="B299" t="n">
-        <v>1892.735394198742</v>
+        <v>1852.478310478939</v>
       </c>
       <c r="C299" t="n">
-        <v>1892735394.198742</v>
+        <v>1852478310.478939</v>
       </c>
     </row>
     <row r="300">
@@ -3733,10 +3733,10 @@
         <v>0.74</v>
       </c>
       <c r="B300" t="n">
-        <v>1894.639287648202</v>
+        <v>1854.990001511527</v>
       </c>
       <c r="C300" t="n">
-        <v>1894639287.648202</v>
+        <v>1854990001.511527</v>
       </c>
     </row>
     <row r="301">
@@ -3744,10 +3744,10 @@
         <v>0.745</v>
       </c>
       <c r="B301" t="n">
-        <v>1896.532264065467</v>
+        <v>1857.488155351295</v>
       </c>
       <c r="C301" t="n">
-        <v>1896532264.065466</v>
+        <v>1857488155.351295</v>
       </c>
     </row>
     <row r="302">
@@ -3755,10 +3755,10 @@
         <v>0.75</v>
       </c>
       <c r="B302" t="n">
-        <v>1898.414458646075</v>
+        <v>1859.972935053555</v>
       </c>
       <c r="C302" t="n">
-        <v>1898414458.646075</v>
+        <v>1859972935.053555</v>
       </c>
     </row>
     <row r="303">
@@ -3766,10 +3766,10 @@
         <v>0.755</v>
       </c>
       <c r="B303" t="n">
-        <v>1900.286004024225</v>
+        <v>1862.444500638853</v>
       </c>
       <c r="C303" t="n">
-        <v>1900286004.024225</v>
+        <v>1862444500.638853</v>
       </c>
     </row>
     <row r="304">
@@ -3777,10 +3777,10 @@
         <v>0.76</v>
       </c>
       <c r="B304" t="n">
-        <v>1902.147030337882</v>
+        <v>1864.903009169117</v>
       </c>
       <c r="C304" t="n">
-        <v>1902147030.337882</v>
+        <v>1864903009.169117</v>
       </c>
     </row>
     <row r="305">
@@ -3788,10 +3788,10 @@
         <v>0.765</v>
       </c>
       <c r="B305" t="n">
-        <v>1903.99766529182</v>
+        <v>1867.348614821407</v>
       </c>
       <c r="C305" t="n">
-        <v>1903997665.29182</v>
+        <v>1867348614.821407</v>
       </c>
     </row>
     <row r="306">
@@ -3799,10 +3799,10 @@
         <v>0.77</v>
       </c>
       <c r="B306" t="n">
-        <v>1905.83803421867</v>
+        <v>1869.781468959362</v>
       </c>
       <c r="C306" t="n">
-        <v>1905838034.21867</v>
+        <v>1869781468.959362</v>
       </c>
     </row>
     <row r="307">
@@ -3810,10 +3810,10 @@
         <v>0.775</v>
       </c>
       <c r="B307" t="n">
-        <v>1907.668260138046</v>
+        <v>1872.201720202419</v>
       </c>
       <c r="C307" t="n">
-        <v>1907668260.138046</v>
+        <v>1872201720.202419</v>
       </c>
     </row>
     <row r="308">
@@ -3821,10 +3821,10 @@
         <v>0.78</v>
       </c>
       <c r="B308" t="n">
-        <v>1909.488463813833</v>
+        <v>1874.609514492902</v>
       </c>
       <c r="C308" t="n">
-        <v>1909488463.813833</v>
+        <v>1874609514.492902</v>
       </c>
     </row>
     <row r="309">
@@ -3832,10 +3832,10 @@
         <v>0.785</v>
       </c>
       <c r="B309" t="n">
-        <v>1911.2987638097</v>
+        <v>1877.004995161049</v>
       </c>
       <c r="C309" t="n">
-        <v>1911298763.8097</v>
+        <v>1877004995.161049</v>
       </c>
     </row>
     <row r="310">
@@ -3843,10 +3843,10 @@
         <v>0.79</v>
       </c>
       <c r="B310" t="n">
-        <v>1913.099276542893</v>
+        <v>1879.388302988055</v>
       </c>
       <c r="C310" t="n">
-        <v>1913099276.542893</v>
+        <v>1879388302.988055</v>
       </c>
     </row>
     <row r="311">
@@ -3854,10 +3854,10 @@
         <v>0.795</v>
       </c>
       <c r="B311" t="n">
-        <v>1914.890116336395</v>
+        <v>1881.759576267212</v>
       </c>
       <c r="C311" t="n">
-        <v>1914890116.336395</v>
+        <v>1881759576.267211</v>
       </c>
     </row>
     <row r="312">
@@ -3865,10 +3865,10 @@
         <v>0.8</v>
       </c>
       <c r="B312" t="n">
-        <v>1916.671395469488</v>
+        <v>1884.118950863196</v>
       </c>
       <c r="C312" t="n">
-        <v>1916671395.469488</v>
+        <v>1884118950.863196</v>
       </c>
     </row>
     <row r="313">
@@ -3876,10 +3876,10 @@
         <v>0.805</v>
       </c>
       <c r="B313" t="n">
-        <v>1918.443224226796</v>
+        <v>1886.466560269597</v>
       </c>
       <c r="C313" t="n">
-        <v>1918443224.226796</v>
+        <v>1886466560.269597</v>
       </c>
     </row>
     <row r="314">
@@ -3887,10 +3887,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B314" t="n">
-        <v>1920.205710945849</v>
+        <v>1888.802535664719</v>
       </c>
       <c r="C314" t="n">
-        <v>1920205710.945849</v>
+        <v>1888802535.664719</v>
       </c>
     </row>
     <row r="315">
@@ -3898,10 +3898,10 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="B315" t="n">
-        <v>1921.958962063227</v>
+        <v>1891.12700596575</v>
       </c>
       <c r="C315" t="n">
-        <v>1921958962.063227</v>
+        <v>1891127005.96575</v>
       </c>
     </row>
     <row r="316">
@@ -3909,10 +3909,10 @@
         <v>0.82</v>
       </c>
       <c r="B316" t="n">
-        <v>1923.70308215934</v>
+        <v>1893.440097881329</v>
       </c>
       <c r="C316" t="n">
-        <v>1923703082.15934</v>
+        <v>1893440097.881329</v>
       </c>
     </row>
     <row r="317">
@@ -3920,10 +3920,10 @@
         <v>0.825</v>
       </c>
       <c r="B317" t="n">
-        <v>1925.438174001882</v>
+        <v>1895.741935962581</v>
       </c>
       <c r="C317" t="n">
-        <v>1925438174.001882</v>
+        <v>1895741935.962581</v>
       </c>
     </row>
     <row r="318">
@@ -3931,10 +3931,10 @@
         <v>0.83</v>
       </c>
       <c r="B318" t="n">
-        <v>1927.164338588015</v>
+        <v>1898.032642652676</v>
       </c>
       <c r="C318" t="n">
-        <v>1927164338.588015</v>
+        <v>1898032642.652677</v>
       </c>
     </row>
     <row r="319">
@@ -3942,10 +3942,10 @@
         <v>0.835</v>
       </c>
       <c r="B319" t="n">
-        <v>1928.881675185318</v>
+        <v>1900.312338334952</v>
       </c>
       <c r="C319" t="n">
-        <v>1928881675.185318</v>
+        <v>1900312338.334952</v>
       </c>
     </row>
     <row r="320">
@@ -3953,10 +3953,10 @@
         <v>0.84</v>
       </c>
       <c r="B320" t="n">
-        <v>1930.590281371562</v>
+        <v>1902.581141379662</v>
       </c>
       <c r="C320" t="n">
-        <v>1930590281.371562</v>
+        <v>1902581141.379662</v>
       </c>
     </row>
     <row r="321">
@@ -3964,10 +3964,10 @@
         <v>0.845</v>
       </c>
       <c r="B321" t="n">
-        <v>1932.290253073323</v>
+        <v>1904.83916818939</v>
       </c>
       <c r="C321" t="n">
-        <v>1932290253.073323</v>
+        <v>1904839168.18939</v>
       </c>
     </row>
     <row r="322">
@@ -3975,10 +3975,10 @@
         <v>0.85</v>
       </c>
       <c r="B322" t="n">
-        <v>1933.981684603508</v>
+        <v>1907.086533243181</v>
       </c>
       <c r="C322" t="n">
-        <v>1933981684.603508</v>
+        <v>1907086533.243181</v>
       </c>
     </row>
     <row r="323">
@@ -3986,10 +3986,10 @@
         <v>0.855</v>
       </c>
       <c r="B323" t="n">
-        <v>1935.664668697797</v>
+        <v>1909.32334913942</v>
       </c>
       <c r="C323" t="n">
-        <v>1935664668.697798</v>
+        <v>1909323349.13942</v>
       </c>
     </row>
     <row r="324">
@@ -3997,10 +3997,10 @@
         <v>0.86</v>
       </c>
       <c r="B324" t="n">
-        <v>1937.339296550066</v>
+        <v>1911.549726637523</v>
       </c>
       <c r="C324" t="n">
-        <v>1937339296.550066</v>
+        <v>1911549726.637523</v>
       </c>
     </row>
     <row r="325">
@@ -4008,10 +4008,10 @@
         <v>0.865</v>
       </c>
       <c r="B325" t="n">
-        <v>1939.005657846808</v>
+        <v>1913.765774698458</v>
       </c>
       <c r="C325" t="n">
-        <v>1939005657.846808</v>
+        <v>1913765774.698458</v>
       </c>
     </row>
     <row r="326">
@@ -4019,10 +4019,10 @@
         <v>0.87</v>
       </c>
       <c r="B326" t="n">
-        <v>1940.663840800593</v>
+        <v>1915.971600524148</v>
       </c>
       <c r="C326" t="n">
-        <v>1940663840.800593</v>
+        <v>1915971600.524148</v>
       </c>
     </row>
     <row r="327">
@@ -4030,10 +4030,10 @@
         <v>0.875</v>
       </c>
       <c r="B327" t="n">
-        <v>1942.313932182596</v>
+        <v>1918.167309595793</v>
       </c>
       <c r="C327" t="n">
-        <v>1942313932.182596</v>
+        <v>1918167309.595793</v>
       </c>
     </row>
     <row r="328">
@@ -4041,10 +4041,10 @@
         <v>0.88</v>
       </c>
       <c r="B328" t="n">
-        <v>1943.956017354232</v>
+        <v>1920.353005711134</v>
       </c>
       <c r="C328" t="n">
-        <v>1943956017.354232</v>
+        <v>1920353005.711134</v>
       </c>
     </row>
     <row r="329">
@@ -4052,10 +4052,10 @@
         <v>0.885</v>
       </c>
       <c r="B329" t="n">
-        <v>1945.590180297913</v>
+        <v>1922.528791020714</v>
       </c>
       <c r="C329" t="n">
-        <v>1945590180.297913</v>
+        <v>1922528791.020714</v>
       </c>
     </row>
     <row r="330">
@@ -4063,10 +4063,10 @@
         <v>0.89</v>
       </c>
       <c r="B330" t="n">
-        <v>1947.216503646968</v>
+        <v>1924.694766063153</v>
       </c>
       <c r="C330" t="n">
-        <v>1947216503.646968</v>
+        <v>1924694766.063153</v>
       </c>
     </row>
     <row r="331">
@@ -4074,10 +4074,10 @@
         <v>0.895</v>
       </c>
       <c r="B331" t="n">
-        <v>1948.835068714755</v>
+        <v>1926.851029799473</v>
       </c>
       <c r="C331" t="n">
-        <v>1948835068.714755</v>
+        <v>1926851029.799473</v>
       </c>
     </row>
     <row r="332">
@@ -4085,10 +4085,10 @@
         <v>0.9</v>
       </c>
       <c r="B332" t="n">
-        <v>1950.445955522978</v>
+        <v>1928.997679646508</v>
       </c>
       <c r="C332" t="n">
-        <v>1950445955.522978</v>
+        <v>1928997679.646508</v>
       </c>
     </row>
     <row r="333">
@@ -4096,10 +4096,10 @@
         <v>0.905</v>
       </c>
       <c r="B333" t="n">
-        <v>1952.049242829246</v>
+        <v>1931.134811509422</v>
       </c>
       <c r="C333" t="n">
-        <v>1952049242.829246</v>
+        <v>1931134811.509422</v>
       </c>
     </row>
     <row r="334">
@@ -4107,10 +4107,10 @@
         <v>0.91</v>
       </c>
       <c r="B334" t="n">
-        <v>1953.645008153897</v>
+        <v>1933.262519813371</v>
       </c>
       <c r="C334" t="n">
-        <v>1953645008.153897</v>
+        <v>1933262519.81337</v>
       </c>
     </row>
     <row r="335">
@@ -4118,10 +4118,10 @@
         <v>0.915</v>
       </c>
       <c r="B335" t="n">
-        <v>1955.23332780611</v>
+        <v>1935.380897534326</v>
       </c>
       <c r="C335" t="n">
-        <v>1955233327.80611</v>
+        <v>1935380897.534326</v>
       </c>
     </row>
     <row r="336">
@@ -4129,10 +4129,10 @@
         <v>0.92</v>
       </c>
       <c r="B336" t="n">
-        <v>1956.81427690932</v>
+        <v>1937.490036229097</v>
       </c>
       <c r="C336" t="n">
-        <v>1956814276.90932</v>
+        <v>1937490036.229097</v>
       </c>
     </row>
     <row r="337">
@@ -4140,10 +4140,10 @@
         <v>0.925</v>
       </c>
       <c r="B337" t="n">
-        <v>1958.387929425973</v>
+        <v>1939.590026064567</v>
       </c>
       <c r="C337" t="n">
-        <v>1958387929.425972</v>
+        <v>1939590026.064567</v>
       </c>
     </row>
     <row r="338">
@@ -4151,10 +4151,10 @@
         <v>0.93</v>
       </c>
       <c r="B338" t="n">
-        <v>1959.954358181628</v>
+        <v>1941.680955846179</v>
       </c>
       <c r="C338" t="n">
-        <v>1959954358.181628</v>
+        <v>1941680955.846179</v>
       </c>
     </row>
     <row r="339">
@@ -4162,10 +4162,10 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="B339" t="n">
-        <v>1961.513634888436</v>
+        <v>1943.762913045677</v>
       </c>
       <c r="C339" t="n">
-        <v>1961513634.888436</v>
+        <v>1943762913.045677</v>
       </c>
     </row>
     <row r="340">
@@ -4173,10 +4173,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="B340" t="n">
-        <v>1963.065830168006</v>
+        <v>1945.835983828154</v>
       </c>
       <c r="C340" t="n">
-        <v>1963065830.168006</v>
+        <v>1945835983.828154</v>
       </c>
     </row>
     <row r="341">
@@ -4184,10 +4184,10 @@
         <v>0.945</v>
       </c>
       <c r="B341" t="n">
-        <v>1964.611013573689</v>
+        <v>1947.900253078393</v>
       </c>
       <c r="C341" t="n">
-        <v>1964611013.573689</v>
+        <v>1947900253.078393</v>
       </c>
     </row>
     <row r="342">
@@ -4195,10 +4195,10 @@
         <v>0.95</v>
       </c>
       <c r="B342" t="n">
-        <v>1966.149253612288</v>
+        <v>1949.95580442655</v>
       </c>
       <c r="C342" t="n">
-        <v>1966149253.612288</v>
+        <v>1949955804.426549</v>
       </c>
     </row>
     <row r="343">
@@ -4206,10 +4206,10 @@
         <v>0.955</v>
       </c>
       <c r="B343" t="n">
-        <v>1967.680617765215</v>
+        <v>1952.002720273192</v>
       </c>
       <c r="C343" t="n">
-        <v>1967680617.765215</v>
+        <v>1952002720.273192</v>
       </c>
     </row>
     <row r="344">
@@ -4217,10 +4217,10 @@
         <v>0.96</v>
       </c>
       <c r="B344" t="n">
-        <v>1969.205172509113</v>
+        <v>1954.0410818137</v>
       </c>
       <c r="C344" t="n">
-        <v>1969205172.509113</v>
+        <v>1954041081.8137</v>
       </c>
     </row>
     <row r="345">
@@ -4228,10 +4228,10 @@
         <v>0.965</v>
       </c>
       <c r="B345" t="n">
-        <v>1970.722983335957</v>
+        <v>1956.07096906207</v>
       </c>
       <c r="C345" t="n">
-        <v>1970722983.335957</v>
+        <v>1956070969.06207</v>
       </c>
     </row>
     <row r="346">
@@ -4239,10 +4239,10 @@
         <v>0.97</v>
       </c>
       <c r="B346" t="n">
-        <v>1972.234114772654</v>
+        <v>1958.092460874116</v>
       </c>
       <c r="C346" t="n">
-        <v>1972234114.772655</v>
+        <v>1958092460.874116</v>
       </c>
     </row>
     <row r="347">
@@ -4250,10 +4250,10 @@
         <v>0.975</v>
       </c>
       <c r="B347" t="n">
-        <v>1973.738630400153</v>
+        <v>1960.105634970109</v>
       </c>
       <c r="C347" t="n">
-        <v>1973738630.400153</v>
+        <v>1960105634.970109</v>
       </c>
     </row>
     <row r="348">
@@ -4261,10 +4261,10 @@
         <v>0.98</v>
       </c>
       <c r="B348" t="n">
-        <v>1975.236592872075</v>
+        <v>1962.110567956851</v>
       </c>
       <c r="C348" t="n">
-        <v>1975236592.872075</v>
+        <v>1962110567.956851</v>
       </c>
     </row>
     <row r="349">
@@ -4272,10 +4272,10 @@
         <v>0.985</v>
       </c>
       <c r="B349" t="n">
-        <v>1976.728063932894</v>
+        <v>1964.10733534922</v>
       </c>
       <c r="C349" t="n">
-        <v>1976728063.932894</v>
+        <v>1964107335.34922</v>
       </c>
     </row>
     <row r="350">
@@ -4283,10 +4283,10 @@
         <v>0.99</v>
       </c>
       <c r="B350" t="n">
-        <v>1978.213104435661</v>
+        <v>1966.096011591179</v>
       </c>
       <c r="C350" t="n">
-        <v>1978213104.435661</v>
+        <v>1966096011.591179</v>
       </c>
     </row>
     <row r="351">
@@ -4294,10 +4294,10 @@
         <v>0.995</v>
       </c>
       <c r="B351" t="n">
-        <v>1979.691774359302</v>
+        <v>1968.076670076287</v>
       </c>
       <c r="C351" t="n">
-        <v>1979691774.359302</v>
+        <v>1968076670.076287</v>
       </c>
     </row>
     <row r="352">
@@ -4305,10 +4305,10 @@
         <v>1</v>
       </c>
       <c r="B352" t="n">
-        <v>1981.164132825493</v>
+        <v>1970.049383167713</v>
       </c>
       <c r="C352" t="n">
-        <v>1981164132.825493</v>
+        <v>1970049383.167713</v>
       </c>
     </row>
     <row r="353">
@@ -4316,10 +4316,10 @@
         <v>1.005</v>
       </c>
       <c r="B353" t="n">
-        <v>1982.630238115124</v>
+        <v>1972.014222217767</v>
       </c>
       <c r="C353" t="n">
-        <v>1982630238.115124</v>
+        <v>1972014222.217767</v>
       </c>
     </row>
     <row r="354">
@@ -4327,10 +4327,10 @@
         <v>1.01</v>
       </c>
       <c r="B354" t="n">
-        <v>1984.090147684371</v>
+        <v>1973.971257586972</v>
       </c>
       <c r="C354" t="n">
-        <v>1984090147.684371</v>
+        <v>1973971257.586972</v>
       </c>
     </row>
     <row r="355">
@@ -4338,10 +4338,10 @@
         <v>1.015</v>
       </c>
       <c r="B355" t="n">
-        <v>1985.543918180379</v>
+        <v>1975.920558662678</v>
       </c>
       <c r="C355" t="n">
-        <v>1985543918.180379</v>
+        <v>1975920558.662678</v>
       </c>
     </row>
     <row r="356">
@@ -4349,10 +4349,10 @@
         <v>1.02</v>
       </c>
       <c r="B356" t="n">
-        <v>1986.991605456576</v>
+        <v>1977.862193877243</v>
       </c>
       <c r="C356" t="n">
-        <v>1986991605.456576</v>
+        <v>1977862193.877244</v>
       </c>
     </row>
     <row r="357">
@@ -4360,10 +4360,10 @@
         <v>1.025</v>
       </c>
       <c r="B357" t="n">
-        <v>1988.433264587618</v>
+        <v>1979.796230725782</v>
       </c>
       <c r="C357" t="n">
-        <v>1988433264.587618</v>
+        <v>1979796230.725782</v>
       </c>
     </row>
     <row r="358">
@@ -4371,10 +4371,10 @@
         <v>1.03</v>
       </c>
       <c r="B358" t="n">
-        <v>1989.868949883987</v>
+        <v>1981.722735783498</v>
       </c>
       <c r="C358" t="n">
-        <v>1989868949.883987</v>
+        <v>1981722735.783498</v>
       </c>
     </row>
     <row r="359">
@@ -4382,10 +4382,10 @@
         <v>1.035</v>
       </c>
       <c r="B359" t="n">
-        <v>1991.298714906241</v>
+        <v>1983.641774722625</v>
       </c>
       <c r="C359" t="n">
-        <v>1991298714.906241</v>
+        <v>1983641774.722625</v>
       </c>
     </row>
     <row r="360">
@@ -4393,10 +4393,10 @@
         <v>1.04</v>
       </c>
       <c r="B360" t="n">
-        <v>1992.722612478931</v>
+        <v>1985.55341232896</v>
       </c>
       <c r="C360" t="n">
-        <v>1992722612.478931</v>
+        <v>1985553412.32896</v>
       </c>
     </row>
     <row r="361">
@@ -4404,10 +4404,10 @@
         <v>1.045</v>
       </c>
       <c r="B361" t="n">
-        <v>1994.140694704201</v>
+        <v>1987.457712518028</v>
       </c>
       <c r="C361" t="n">
-        <v>1994140694.704201</v>
+        <v>1987457712.518028</v>
       </c>
     </row>
     <row r="362">
@@ -4415,10 +4415,10 @@
         <v>1.05</v>
       </c>
       <c r="B362" t="n">
-        <v>1995.553012975065</v>
+        <v>1989.35473835087</v>
       </c>
       <c r="C362" t="n">
-        <v>1995553012.975065</v>
+        <v>1989354738.35087</v>
       </c>
     </row>
     <row r="363">
@@ -4426,10 +4426,10 @@
         <v>1.055</v>
       </c>
       <c r="B363" t="n">
-        <v>1996.959617988382</v>
+        <v>1991.244552049473</v>
       </c>
       <c r="C363" t="n">
-        <v>1996959617.988382</v>
+        <v>1991244552.049474</v>
       </c>
     </row>
     <row r="364">
@@ -4437,10 +4437,10 @@
         <v>1.06</v>
       </c>
       <c r="B364" t="n">
-        <v>1998.360559757531</v>
+        <v>1993.12721501185</v>
       </c>
       <c r="C364" t="n">
-        <v>1998360559.757531</v>
+        <v>1993127215.01185</v>
       </c>
     </row>
     <row r="365">
@@ -4448,10 +4448,10 @@
         <v>1.065</v>
       </c>
       <c r="B365" t="n">
-        <v>1999.755887624801</v>
+        <v>1995.002787826776</v>
       </c>
       <c r="C365" t="n">
-        <v>1999755887.624801</v>
+        <v>1995002787.826776</v>
       </c>
     </row>
     <row r="366">
@@ -4459,10 +4459,10 @@
         <v>1.07</v>
       </c>
       <c r="B366" t="n">
-        <v>2001.145650273495</v>
+        <v>1996.871330288201</v>
       </c>
       <c r="C366" t="n">
-        <v>2001145650.273495</v>
+        <v>1996871330.288201</v>
       </c>
     </row>
     <row r="367">
@@ -4470,10 +4470,10 @@
         <v>1.075</v>
       </c>
       <c r="B367" t="n">
-        <v>2002.529895739764</v>
+        <v>1998.732901409327</v>
       </c>
       <c r="C367" t="n">
-        <v>2002529895.739764</v>
+        <v>1998732901.409327</v>
       </c>
     </row>
     <row r="368">
@@ -4481,10 +4481,10 @@
         <v>1.08</v>
       </c>
       <c r="B368" t="n">
-        <v>2003.908671424168</v>
+        <v>2000.587559436384</v>
       </c>
       <c r="C368" t="n">
-        <v>2003908671.424168</v>
+        <v>2000587559.436384</v>
       </c>
     </row>
     <row r="369">
@@ -4492,10 +4492,10 @@
         <v>1.085</v>
       </c>
       <c r="B369" t="n">
-        <v>2005.282024102989</v>
+        <v>2002.435361862097</v>
       </c>
       <c r="C369" t="n">
-        <v>2005282024.102988</v>
+        <v>2002435361.862097</v>
       </c>
     </row>
     <row r="370">
@@ -4503,10 +4503,10 @@
         <v>1.09</v>
       </c>
       <c r="B370" t="n">
-        <v>2006.649999939277</v>
+        <v>2004.276365438849</v>
       </c>
       <c r="C370" t="n">
-        <v>2006649999.939276</v>
+        <v>2004276365.438849</v>
       </c>
     </row>
     <row r="371">
@@ -4514,10 +4514,10 @@
         <v>1.095</v>
       </c>
       <c r="B371" t="n">
-        <v>2008.012644493667</v>
+        <v>2006.110626191564</v>
       </c>
       <c r="C371" t="n">
-        <v>2008012644.493667</v>
+        <v>2006110626.191564</v>
       </c>
     </row>
     <row r="372">
@@ -4525,10 +4525,10 @@
         <v>1.1</v>
       </c>
       <c r="B372" t="n">
-        <v>2009.370002734944</v>
+        <v>2007.9381994303</v>
       </c>
       <c r="C372" t="n">
-        <v>2009370002.734944</v>
+        <v>2007938199.4303</v>
       </c>
     </row>
     <row r="373">
@@ -4536,10 +4536,10 @@
         <v>1.105</v>
       </c>
       <c r="B373" t="n">
-        <v>2010.722119050383</v>
+        <v>2009.759139762579</v>
       </c>
       <c r="C373" t="n">
-        <v>2010722119.050383</v>
+        <v>2009759139.762579</v>
       </c>
     </row>
     <row r="374">
@@ -4547,10 +4547,10 @@
         <v>1.11</v>
       </c>
       <c r="B374" t="n">
-        <v>2012.069037255858</v>
+        <v>2011.573501105436</v>
       </c>
       <c r="C374" t="n">
-        <v>2012069037.255858</v>
+        <v>2011573501.105436</v>
       </c>
     </row>
     <row r="375">
@@ -4558,10 +4558,10 @@
         <v>1.115</v>
       </c>
       <c r="B375" t="n">
-        <v>2013.410800605732</v>
+        <v>2013.381336697216</v>
       </c>
       <c r="C375" t="n">
-        <v>2013410800.605732</v>
+        <v>2013381336.697216</v>
       </c>
     </row>
     <row r="376">
@@ -4569,10 +4569,10 @@
         <v>1.12</v>
       </c>
       <c r="B376" t="n">
-        <v>2014.747451802537</v>
+        <v>2015.18269910912</v>
       </c>
       <c r="C376" t="n">
-        <v>2014747451.802537</v>
+        <v>2015182699.10912</v>
       </c>
     </row>
     <row r="377">
@@ -4580,10 +4580,10 @@
         <v>1.125</v>
       </c>
       <c r="B377" t="n">
-        <v>2016.079033006435</v>
+        <v>2016.977640256497</v>
       </c>
       <c r="C377" t="n">
-        <v>2016079033.006435</v>
+        <v>2016977640.256497</v>
       </c>
     </row>
     <row r="378">
@@ -4591,10 +4591,10 @@
         <v>1.13</v>
       </c>
       <c r="B378" t="n">
-        <v>2017.405585844484</v>
+        <v>2018.766211409898</v>
       </c>
       <c r="C378" t="n">
-        <v>2017405585.844485</v>
+        <v>2018766211.409899</v>
       </c>
     </row>
     <row r="379">
@@ -4602,10 +4602,10 @@
         <v>1.135</v>
       </c>
       <c r="B379" t="n">
-        <v>2018.727151419707</v>
+        <v>2020.548463205902</v>
       </c>
       <c r="C379" t="n">
-        <v>2018727151.419707</v>
+        <v>2020548463.205902</v>
       </c>
     </row>
     <row r="380">
@@ -4613,10 +4613,10 @@
         <v>1.14</v>
       </c>
       <c r="B380" t="n">
-        <v>2020.043770319953</v>
+        <v>2022.3244456577</v>
       </c>
       <c r="C380" t="n">
-        <v>2020043770.319953</v>
+        <v>2022324445.6577</v>
       </c>
     </row>
     <row r="381">
@@ -4624,10 +4624,10 @@
         <v>1.145</v>
       </c>
       <c r="B381" t="n">
-        <v>2021.35548262659</v>
+        <v>2024.094208165472</v>
       </c>
       <c r="C381" t="n">
-        <v>2021355482.62659</v>
+        <v>2024094208.165472</v>
       </c>
     </row>
     <row r="382">
@@ -4635,10 +4635,10 @@
         <v>1.15</v>
       </c>
       <c r="B382" t="n">
-        <v>2022.662327923</v>
+        <v>2025.857799526536</v>
       </c>
       <c r="C382" t="n">
-        <v>2022662327.923</v>
+        <v>2025857799.526536</v>
       </c>
     </row>
     <row r="383">
@@ -4646,10 +4646,10 @@
         <v>1.155</v>
       </c>
       <c r="B383" t="n">
-        <v>2023.964345302899</v>
+        <v>2027.615267945291</v>
       </c>
       <c r="C383" t="n">
-        <v>2023964345.302899</v>
+        <v>2027615267.945291</v>
       </c>
     </row>
     <row r="384">
@@ -4657,10 +4657,10 @@
         <v>1.16</v>
       </c>
       <c r="B384" t="n">
-        <v>2025.261573378485</v>
+        <v>2029.36666104295</v>
       </c>
       <c r="C384" t="n">
-        <v>2025261573.378485</v>
+        <v>2029366661.04295</v>
       </c>
     </row>
     <row r="385">
@@ -4668,10 +4668,10 @@
         <v>1.165</v>
       </c>
       <c r="B385" t="n">
-        <v>2026.554050288415</v>
+        <v>2031.112025867075</v>
       </c>
       <c r="C385" t="n">
-        <v>2026554050.288415</v>
+        <v>2031112025.867075</v>
       </c>
     </row>
     <row r="386">
@@ -4679,10 +4679,10 @@
         <v>1.17</v>
       </c>
       <c r="B386" t="n">
-        <v>2027.841813705613</v>
+        <v>2032.851408900917</v>
       </c>
       <c r="C386" t="n">
-        <v>2027841813.705613</v>
+        <v>2032851408.900917</v>
       </c>
     </row>
     <row r="387">
@@ -4690,10 +4690,10 @@
         <v>1.175</v>
       </c>
       <c r="B387" t="n">
-        <v>2029.124900844919</v>
+        <v>2034.584856072558</v>
       </c>
       <c r="C387" t="n">
-        <v>2029124900.844919</v>
+        <v>2034584856.072558</v>
       </c>
     </row>
     <row r="388">
@@ -4701,10 +4701,10 @@
         <v>1.18</v>
       </c>
       <c r="B388" t="n">
-        <v>2030.403348470585</v>
+        <v>2036.312412763878</v>
       </c>
       <c r="C388" t="n">
-        <v>2030403348.470585</v>
+        <v>2036312412.763878</v>
       </c>
     </row>
     <row r="389">
@@ -4712,10 +4712,10 @@
         <v>1.185</v>
       </c>
       <c r="B389" t="n">
-        <v>2031.677192903607</v>
+        <v>2038.034123819326</v>
       </c>
       <c r="C389" t="n">
-        <v>2031677192.903607</v>
+        <v>2038034123.819326</v>
       </c>
     </row>
     <row r="390">
@@ -4723,10 +4723,10 @@
         <v>1.19</v>
       </c>
       <c r="B390" t="n">
-        <v>2032.946470028915</v>
+        <v>2039.750033554528</v>
       </c>
       <c r="C390" t="n">
-        <v>2032946470.028915</v>
+        <v>2039750033.554528</v>
       </c>
     </row>
     <row r="391">
@@ -4734,10 +4734,10 @@
         <v>1.195</v>
       </c>
       <c r="B391" t="n">
-        <v>2034.211215302418</v>
+        <v>2041.460185764709</v>
       </c>
       <c r="C391" t="n">
-        <v>2034211215.302418</v>
+        <v>2041460185.764709</v>
       </c>
     </row>
     <row r="392">
@@ -4745,10 +4745,10 @@
         <v>1.2</v>
       </c>
       <c r="B392" t="n">
-        <v>2035.471463757896</v>
+        <v>2043.164623732955</v>
       </c>
       <c r="C392" t="n">
-        <v>2035471463.757896</v>
+        <v>2043164623.732955</v>
       </c>
     </row>
     <row r="393">
@@ -4756,10 +4756,10 @@
         <v>1.205</v>
       </c>
       <c r="B393" t="n">
-        <v>2036.727250013766</v>
+        <v>2044.863390238309</v>
       </c>
       <c r="C393" t="n">
-        <v>2036727250.013766</v>
+        <v>2044863390.238308</v>
       </c>
     </row>
     <row r="394">
@@ -4767,10 +4767,10 @@
         <v>1.21</v>
       </c>
       <c r="B394" t="n">
-        <v>2037.978608279703</v>
+        <v>2046.556527563696</v>
       </c>
       <c r="C394" t="n">
-        <v>2037978608.279703</v>
+        <v>2046556527.563696</v>
       </c>
     </row>
     <row r="395">
@@ -4778,10 +4778,10 @@
         <v>1.215</v>
       </c>
       <c r="B395" t="n">
-        <v>2039.225572363135</v>
+        <v>2048.244077503709</v>
       </c>
       <c r="C395" t="n">
-        <v>2039225572.363135</v>
+        <v>2048244077.503709</v>
       </c>
     </row>
     <row r="396">
@@ -4789,10 +4789,10 @@
         <v>1.22</v>
       </c>
       <c r="B396" t="n">
-        <v>2040.468175675597</v>
+        <v>2049.926081372226</v>
       </c>
       <c r="C396" t="n">
-        <v>2040468175.675597</v>
+        <v>2049926081.372226</v>
       </c>
     </row>
     <row r="397">
@@ -4800,10 +4800,10 @@
         <v>1.225</v>
       </c>
       <c r="B397" t="n">
-        <v>2041.706451238978</v>
+        <v>2051.602580009885</v>
       </c>
       <c r="C397" t="n">
-        <v>2041706451.238978</v>
+        <v>2051602580.009885</v>
       </c>
     </row>
     <row r="398">
@@ -4811,10 +4811,10 @@
         <v>1.23</v>
       </c>
       <c r="B398" t="n">
-        <v>2042.940431691626</v>
+        <v>2053.273613791407</v>
       </c>
       <c r="C398" t="n">
-        <v>2042940431.691626</v>
+        <v>2053273613.791407</v>
       </c>
     </row>
     <row r="399">
@@ -4822,10 +4822,10 @@
         <v>1.235</v>
       </c>
       <c r="B399" t="n">
-        <v>2044.170149294343</v>
+        <v>2054.939222632786</v>
       </c>
       <c r="C399" t="n">
-        <v>2044170149.294343</v>
+        <v>2054939222.632786</v>
       </c>
     </row>
     <row r="400">
@@ -4833,10 +4833,10 @@
         <v>1.24</v>
       </c>
       <c r="B400" t="n">
-        <v>2045.39563593626</v>
+        <v>2056.599445998331</v>
       </c>
       <c r="C400" t="n">
-        <v>2045395635.93626</v>
+        <v>2056599445.998331</v>
       </c>
     </row>
     <row r="401">
@@ -4844,10 +4844,10 @@
         <v>1.245</v>
       </c>
       <c r="B401" t="n">
-        <v>2046.616923140596</v>
+        <v>2058.254322907573</v>
       </c>
       <c r="C401" t="n">
-        <v>2046616923.140596</v>
+        <v>2058254322.907573</v>
       </c>
     </row>
     <row r="402">
@@ -4855,10 +4855,10 @@
         <v>1.25</v>
       </c>
       <c r="B402" t="n">
-        <v>2047.834042070309</v>
+        <v>2059.903891942045</v>
       </c>
       <c r="C402" t="n">
-        <v>2047834042.070309</v>
+        <v>2059903891.942044</v>
       </c>
     </row>
     <row r="403">
@@ -4866,10 +4866,10 @@
         <v>1.255</v>
       </c>
       <c r="B403" t="n">
-        <v>2049.047023533632</v>
+        <v>2061.548191251921</v>
       </c>
       <c r="C403" t="n">
-        <v>2049047023.533633</v>
+        <v>2061548191.251921</v>
       </c>
     </row>
     <row r="404">
@@ -4877,10 +4877,10 @@
         <v>1.26</v>
       </c>
       <c r="B404" t="n">
-        <v>2050.255897989508</v>
+        <v>2063.187258562545</v>
       </c>
       <c r="C404" t="n">
-        <v>2050255897.989507</v>
+        <v>2063187258.562545</v>
       </c>
     </row>
     <row r="405">
@@ -4888,10 +4888,10 @@
         <v>1.265</v>
       </c>
       <c r="B405" t="n">
-        <v>2051.460695552913</v>
+        <v>2064.821131180816</v>
       </c>
       <c r="C405" t="n">
-        <v>2051460695.552912</v>
+        <v>2064821131.180816</v>
       </c>
     </row>
     <row r="406">
@@ -4899,10 +4899,10 @@
         <v>1.27</v>
       </c>
       <c r="B406" t="n">
-        <v>2052.661446000086</v>
+        <v>2066.449846001468</v>
       </c>
       <c r="C406" t="n">
-        <v>2052661446.000087</v>
+        <v>2066449846.001468</v>
       </c>
     </row>
     <row r="407">
@@ -4910,10 +4910,10 @@
         <v>1.275</v>
       </c>
       <c r="B407" t="n">
-        <v>2053.858178773656</v>
+        <v>2068.073439513224</v>
       </c>
       <c r="C407" t="n">
-        <v>2053858178.773656</v>
+        <v>2068073439.513224</v>
       </c>
     </row>
     <row r="408">
@@ -4921,10 +4921,10 @@
         <v>1.28</v>
       </c>
       <c r="B408" t="n">
-        <v>2055.050922987667</v>
+        <v>2069.691947804835</v>
       </c>
       <c r="C408" t="n">
-        <v>2055050922.987667</v>
+        <v>2069691947.804835</v>
       </c>
     </row>
     <row r="409">
@@ -4932,10 +4932,10 @@
         <v>1.285</v>
       </c>
       <c r="B409" t="n">
-        <v>2056.23970743251</v>
+        <v>2071.305406571009</v>
       </c>
       <c r="C409" t="n">
-        <v>2056239707.43251</v>
+        <v>2071305406.571009</v>
       </c>
     </row>
     <row r="410">
@@ -4943,10 +4943,10 @@
         <v>1.29</v>
       </c>
       <c r="B410" t="n">
-        <v>2057.424560579775</v>
+        <v>2072.913851118225</v>
       </c>
       <c r="C410" t="n">
-        <v>2057424560.579775</v>
+        <v>2072913851.118226</v>
       </c>
     </row>
     <row r="411">
@@ -4954,10 +4954,10 @@
         <v>1.295</v>
       </c>
       <c r="B411" t="n">
-        <v>2058.605510586985</v>
+        <v>2074.517316370444</v>
       </c>
       <c r="C411" t="n">
-        <v>2058605510.586985</v>
+        <v>2074517316.370444</v>
       </c>
     </row>
     <row r="412">
@@ -4965,10 +4965,10 @@
         <v>1.3</v>
       </c>
       <c r="B412" t="n">
-        <v>2059.782585302268</v>
+        <v>2076.115836874707</v>
       </c>
       <c r="C412" t="n">
-        <v>2059782585.302268</v>
+        <v>2076115836.874707</v>
       </c>
     </row>
     <row r="413">
@@ -4976,10 +4976,10 @@
         <v>1.305</v>
       </c>
       <c r="B413" t="n">
-        <v>2060.95581226893</v>
+        <v>2077.709446806641</v>
       </c>
       <c r="C413" t="n">
-        <v>2060955812.26893</v>
+        <v>2077709446.806641</v>
       </c>
     </row>
     <row r="414">
@@ -4987,10 +4987,10 @@
         <v>1.31</v>
       </c>
       <c r="B414" t="n">
-        <v>2062.125218729941</v>
+        <v>2079.29817997585</v>
       </c>
       <c r="C414" t="n">
-        <v>2062125218.729941</v>
+        <v>2079298179.97585</v>
       </c>
     </row>
     <row r="415">
@@ -4998,10 +4998,10 @@
         <v>1.315</v>
       </c>
       <c r="B415" t="n">
-        <v>2063.290831632342</v>
+        <v>2080.882069831225</v>
       </c>
       <c r="C415" t="n">
-        <v>2063290831.632342</v>
+        <v>2080882069.831225</v>
       </c>
     </row>
     <row r="416">
@@ -5009,10 +5009,10 @@
         <v>1.32</v>
       </c>
       <c r="B416" t="n">
-        <v>2064.452677631575</v>
+        <v>2082.461149466134</v>
       </c>
       <c r="C416" t="n">
-        <v>2064452677.631575</v>
+        <v>2082461149.466134</v>
       </c>
     </row>
     <row r="417">
@@ -5020,10 +5020,10 @@
         <v>1.325</v>
       </c>
       <c r="B417" t="n">
-        <v>2065.610783095721</v>
+        <v>2084.035451623542</v>
       </c>
       <c r="C417" t="n">
-        <v>2065610783.095721</v>
+        <v>2084035451.623543</v>
       </c>
     </row>
     <row r="418">
@@ -5031,10 +5031,10 @@
         <v>1.33</v>
       </c>
       <c r="B418" t="n">
-        <v>2066.765174109678</v>
+        <v>2085.605008701024</v>
       </c>
       <c r="C418" t="n">
-        <v>2066765174.109678</v>
+        <v>2085605008.701024</v>
       </c>
     </row>
     <row r="419">
@@ -5042,10 +5042,10 @@
         <v>1.335</v>
       </c>
       <c r="B419" t="n">
-        <v>2067.915876479243</v>
+        <v>2087.169852755685</v>
       </c>
       <c r="C419" t="n">
-        <v>2067915876.479243</v>
+        <v>2087169852.755685</v>
       </c>
     </row>
     <row r="420">
@@ -5053,10 +5053,10 @@
         <v>1.34</v>
       </c>
       <c r="B420" t="n">
-        <v>2069.06291573514</v>
+        <v>2088.730015509007</v>
       </c>
       <c r="C420" t="n">
-        <v>2069062915.735141</v>
+        <v>2088730015.509007</v>
       </c>
     </row>
     <row r="421">
@@ -5064,10 +5064,10 @@
         <v>1.345</v>
       </c>
       <c r="B421" t="n">
-        <v>2070.20631713696</v>
+        <v>2090.285528351596</v>
       </c>
       <c r="C421" t="n">
-        <v>2070206317.13696</v>
+        <v>2090285528.351596</v>
       </c>
     </row>
     <row r="422">
@@ -5075,10 +5075,10 @@
         <v>1.35</v>
       </c>
       <c r="B422" t="n">
-        <v>2071.346105677036</v>
+        <v>2091.836422347846</v>
       </c>
       <c r="C422" t="n">
-        <v>2071346105.677036</v>
+        <v>2091836422.347846</v>
       </c>
     </row>
     <row r="423">
@@ -5086,10 +5086,10 @@
         <v>1.355</v>
       </c>
       <c r="B423" t="n">
-        <v>2072.48230608425</v>
+        <v>2093.382728240525</v>
       </c>
       <c r="C423" t="n">
-        <v>2072482306.08425</v>
+        <v>2093382728.240525</v>
       </c>
     </row>
     <row r="424">
@@ -5097,10 +5097,10 @@
         <v>1.36</v>
       </c>
       <c r="B424" t="n">
-        <v>2073.614942827771</v>
+        <v>2094.924476455278</v>
       </c>
       <c r="C424" t="n">
-        <v>2073614942.827771</v>
+        <v>2094924476.455278</v>
       </c>
     </row>
     <row r="425">
@@ -5108,10 +5108,10 @@
         <v>1.365</v>
       </c>
       <c r="B425" t="n">
-        <v>2074.744040120722</v>
+        <v>2096.46169710505</v>
       </c>
       <c r="C425" t="n">
-        <v>2074744040.120722</v>
+        <v>2096461697.105051</v>
       </c>
     </row>
     <row r="426">
@@ -5119,10 +5119,10 @@
         <v>1.37</v>
       </c>
       <c r="B426" t="n">
-        <v>2075.869621923789</v>
+        <v>2097.994419994432</v>
       </c>
       <c r="C426" t="n">
-        <v>2075869621.923789</v>
+        <v>2097994419.994431</v>
       </c>
     </row>
     <row r="427">
@@ -5130,10 +5130,10 @@
         <v>1.375</v>
       </c>
       <c r="B427" t="n">
-        <v>2076.99171194876</v>
+        <v>2099.522674623925</v>
       </c>
       <c r="C427" t="n">
-        <v>2076991711.948761</v>
+        <v>2099522674.623925</v>
       </c>
     </row>
     <row r="428">
@@ -5141,10 +5141,10 @@
         <v>1.38</v>
       </c>
       <c r="B428" t="n">
-        <v>2078.110333662009</v>
+        <v>2101.046490194147</v>
       </c>
       <c r="C428" t="n">
-        <v>2078110333.662009</v>
+        <v>2101046490.194147</v>
       </c>
     </row>
     <row r="429">
@@ -5152,10 +5152,10 @@
         <v>1.385</v>
       </c>
       <c r="B429" t="n">
-        <v>2079.225510287908</v>
+        <v>2102.565895609944</v>
       </c>
       <c r="C429" t="n">
-        <v>2079225510.287908</v>
+        <v>2102565895.609944</v>
       </c>
     </row>
     <row r="430">
@@ -5163,10 +5163,10 @@
         <v>1.39</v>
       </c>
       <c r="B430" t="n">
-        <v>2080.33726481219</v>
+        <v>2104.080919484445</v>
       </c>
       <c r="C430" t="n">
-        <v>2080337264.81219</v>
+        <v>2104080919.484445</v>
       </c>
     </row>
     <row r="431">
@@ -5174,10 +5174,10 @@
         <v>1.395</v>
       </c>
       <c r="B431" t="n">
-        <v>2081.44561998525</v>
+        <v>2105.591590143045</v>
       </c>
       <c r="C431" t="n">
-        <v>2081445619.98525</v>
+        <v>2105591590.143045</v>
       </c>
     </row>
     <row r="432">
@@ -5185,10 +5185,10 @@
         <v>1.4</v>
       </c>
       <c r="B432" t="n">
-        <v>2082.550598325385</v>
+        <v>2107.097935627316</v>
       </c>
       <c r="C432" t="n">
-        <v>2082550598.325385</v>
+        <v>2107097935.627316</v>
       </c>
     </row>
     <row r="433">
@@ -5196,10 +5196,10 @@
         <v>1.405</v>
       </c>
       <c r="B433" t="n">
-        <v>2083.65222212198</v>
+        <v>2108.599983698854</v>
       </c>
       <c r="C433" t="n">
-        <v>2083652222.12198</v>
+        <v>2108599983.698854</v>
       </c>
     </row>
     <row r="434">
@@ -5207,10 +5207,10 @@
         <v>1.41</v>
       </c>
       <c r="B434" t="n">
-        <v>2084.750513438644</v>
+        <v>2110.097761843056</v>
       </c>
       <c r="C434" t="n">
-        <v>2084750513.438644</v>
+        <v>2110097761.843056</v>
       </c>
     </row>
     <row r="435">
@@ -5218,10 +5218,10 @@
         <v>1.415</v>
       </c>
       <c r="B435" t="n">
-        <v>2085.845494116284</v>
+        <v>2111.59129727284</v>
       </c>
       <c r="C435" t="n">
-        <v>2085845494.116285</v>
+        <v>2111591297.27284</v>
       </c>
     </row>
     <row r="436">
@@ -5229,10 +5229,10 @@
         <v>1.42</v>
       </c>
       <c r="B436" t="n">
-        <v>2086.937185776136</v>
+        <v>2113.080616932297</v>
       </c>
       <c r="C436" t="n">
-        <v>2086937185.776136</v>
+        <v>2113080616.932297</v>
       </c>
     </row>
     <row r="437">
@@ -5240,10 +5240,10 @@
         <v>1.425</v>
       </c>
       <c r="B437" t="n">
-        <v>2088.025609822729</v>
+        <v>2114.565747500281</v>
       </c>
       <c r="C437" t="n">
-        <v>2088025609.822729</v>
+        <v>2114565747.500281</v>
       </c>
     </row>
     <row r="438">
@@ -5251,10 +5251,10 @@
         <v>1.43</v>
       </c>
       <c r="B438" t="n">
-        <v>2089.110787446819</v>
+        <v>2116.046715393939</v>
       </c>
       <c r="C438" t="n">
-        <v>2089110787.446819</v>
+        <v>2116046715.393939</v>
       </c>
     </row>
     <row r="439">
@@ -5262,10 +5262,10 @@
         <v>1.435</v>
       </c>
       <c r="B439" t="n">
-        <v>2090.192739628256</v>
+        <v>2117.523546772189</v>
       </c>
       <c r="C439" t="n">
-        <v>2090192739.628256</v>
+        <v>2117523546.772189</v>
       </c>
     </row>
     <row r="440">
@@ -5273,10 +5273,10 @@
         <v>1.44</v>
       </c>
       <c r="B440" t="n">
-        <v>2091.271487138812</v>
+        <v>2118.996267539126</v>
       </c>
       <c r="C440" t="n">
-        <v>2091271487.138812</v>
+        <v>2118996267.539126</v>
       </c>
     </row>
     <row r="441">
@@ -5284,10 +5284,10 @@
         <v>1.445</v>
       </c>
       <c r="B441" t="n">
-        <v>2092.347050544957</v>
+        <v>2120.464903347383</v>
       </c>
       <c r="C441" t="n">
-        <v>2092347050.544957</v>
+        <v>2120464903.347383</v>
       </c>
     </row>
     <row r="442">
@@ -5295,10 +5295,10 @@
         <v>1.45</v>
       </c>
       <c r="B442" t="n">
-        <v>2093.419450210592</v>
+        <v>2121.929479601433</v>
       </c>
       <c r="C442" t="n">
-        <v>2093419450.210593</v>
+        <v>2121929479.601433</v>
       </c>
     </row>
     <row r="443">
@@ -5306,10 +5306,10 @@
         <v>1.455</v>
       </c>
       <c r="B443" t="n">
-        <v>2094.488706299735</v>
+        <v>2123.390021460837</v>
       </c>
       <c r="C443" t="n">
-        <v>2094488706.299736</v>
+        <v>2123390021.460837</v>
       </c>
     </row>
     <row r="444">
@@ -5317,10 +5317,10 @@
         <v>1.46</v>
       </c>
       <c r="B444" t="n">
-        <v>2095.55483877916</v>
+        <v>2124.84655384343</v>
       </c>
       <c r="C444" t="n">
-        <v>2095554838.77916</v>
+        <v>2124846553.84343</v>
       </c>
     </row>
     <row r="445">
@@ -5328,10 +5328,10 @@
         <v>1.465</v>
       </c>
       <c r="B445" t="n">
-        <v>2096.617867420995</v>
+        <v>2126.299101428472</v>
       </c>
       <c r="C445" t="n">
-        <v>2096617867.420995</v>
+        <v>2126299101.428472</v>
       </c>
     </row>
     <row r="446">
@@ -5339,10 +5339,10 @@
         <v>1.47</v>
       </c>
       <c r="B446" t="n">
-        <v>2097.677811805274</v>
+        <v>2127.74768865973</v>
       </c>
       <c r="C446" t="n">
-        <v>2097677811.805274</v>
+        <v>2127747688.65973</v>
       </c>
     </row>
     <row r="447">
@@ -5350,10 +5350,10 @@
         <v>1.475</v>
       </c>
       <c r="B447" t="n">
-        <v>2098.734691322455</v>
+        <v>2129.192339748521</v>
       </c>
       <c r="C447" t="n">
-        <v>2098734691.322455</v>
+        <v>2129192339.748521</v>
       </c>
     </row>
     <row r="448">
@@ -5361,10 +5361,10 @@
         <v>1.48</v>
       </c>
       <c r="B448" t="n">
-        <v>2099.788525175886</v>
+        <v>2130.6330786767</v>
       </c>
       <c r="C448" t="n">
-        <v>2099788525.175886</v>
+        <v>2130633078.6767</v>
       </c>
     </row>
     <row r="449">
@@ -5372,10 +5372,10 @@
         <v>1.485</v>
       </c>
       <c r="B449" t="n">
-        <v>2100.839332384236</v>
+        <v>2132.069929199604</v>
       </c>
       <c r="C449" t="n">
-        <v>2100839332.384236</v>
+        <v>2132069929.199604</v>
       </c>
     </row>
     <row r="450">
@@ -5383,10 +5383,10 @@
         <v>1.49</v>
       </c>
       <c r="B450" t="n">
-        <v>2101.887131783885</v>
+        <v>2133.502914848941</v>
       </c>
       <c r="C450" t="n">
-        <v>2101887131.783885</v>
+        <v>2133502914.848941</v>
       </c>
     </row>
     <row r="451">
@@ -5394,10 +5394,10 @@
         <v>1.495</v>
       </c>
       <c r="B451" t="n">
-        <v>2102.931942031281</v>
+        <v>2134.932058935644</v>
       </c>
       <c r="C451" t="n">
-        <v>2102931942.031281</v>
+        <v>2134932058.935644</v>
       </c>
     </row>
     <row r="452">
@@ -5405,10 +5405,10 @@
         <v>1.5</v>
       </c>
       <c r="B452" t="n">
-        <v>2103.973781605247</v>
+        <v>2136.357384552667</v>
       </c>
       <c r="C452" t="n">
-        <v>2103973781.605247</v>
+        <v>2136357384.552667</v>
       </c>
     </row>
     <row r="453">
@@ -5416,10 +5416,10 @@
         <v>1.505</v>
       </c>
       <c r="B453" t="n">
-        <v>2105.012668809261</v>
+        <v>2137.778914577745</v>
       </c>
       <c r="C453" t="n">
-        <v>2105012668.809261</v>
+        <v>2137778914.577745</v>
       </c>
     </row>
     <row r="454">
@@ -5427,10 +5427,10 @@
         <v>1.51</v>
       </c>
       <c r="B454" t="n">
-        <v>2106.048621773699</v>
+        <v>2139.196671676105</v>
       </c>
       <c r="C454" t="n">
-        <v>2106048621.773699</v>
+        <v>2139196671.676105</v>
       </c>
     </row>
     <row r="455">
@@ -5438,10 +5438,10 @@
         <v>1.515</v>
       </c>
       <c r="B455" t="n">
-        <v>2107.081658458032</v>
+        <v>2140.61067830314</v>
       </c>
       <c r="C455" t="n">
-        <v>2107081658.458032</v>
+        <v>2140610678.30314</v>
       </c>
     </row>
     <row r="456">
@@ -5449,10 +5449,10 @@
         <v>1.52</v>
       </c>
       <c r="B456" t="n">
-        <v>2108.111796652998</v>
+        <v>2142.020956707032</v>
       </c>
       <c r="C456" t="n">
-        <v>2108111796.652998</v>
+        <v>2142020956.707032</v>
       </c>
     </row>
     <row r="457">
@@ -5460,10 +5460,10 @@
         <v>1.525</v>
       </c>
       <c r="B457" t="n">
-        <v>2109.13905398274</v>
+        <v>2143.427528931342</v>
       </c>
       <c r="C457" t="n">
-        <v>2109139053.98274</v>
+        <v>2143427528.931342</v>
       </c>
     </row>
     <row r="458">
@@ -5471,10 +5471,10 @@
         <v>1.53</v>
       </c>
       <c r="B458" t="n">
-        <v>2110.1634479069</v>
+        <v>2144.830416817552</v>
       </c>
       <c r="C458" t="n">
-        <v>2110163447.9069</v>
+        <v>2144830416.817552</v>
       </c>
     </row>
     <row r="459">
@@ -5482,10 +5482,10 @@
         <v>1.535</v>
       </c>
       <c r="B459" t="n">
-        <v>2111.18499572269</v>
+        <v>2146.229642007577</v>
       </c>
       <c r="C459" t="n">
-        <v>2111184995.72269</v>
+        <v>2146229642.007577</v>
       </c>
     </row>
     <row r="460">
@@ -5493,10 +5493,10 @@
         <v>1.54</v>
       </c>
       <c r="B460" t="n">
-        <v>2112.203714566922</v>
+        <v>2147.625225946223</v>
       </c>
       <c r="C460" t="n">
-        <v>2112203714.566922</v>
+        <v>2147625225.946223</v>
       </c>
     </row>
     <row r="461">
@@ -5504,10 +5504,10 @@
         <v>1.545</v>
       </c>
       <c r="B461" t="n">
-        <v>2113.219621418019</v>
+        <v>2149.017189883624</v>
       </c>
       <c r="C461" t="n">
-        <v>2113219621.418019</v>
+        <v>2149017189.883624</v>
       </c>
     </row>
     <row r="462">
@@ -5515,10 +5515,10 @@
         <v>1.55</v>
       </c>
       <c r="B462" t="n">
-        <v>2114.232733097977</v>
+        <v>2150.405554877627</v>
       </c>
       <c r="C462" t="n">
-        <v>2114232733.097977</v>
+        <v>2150405554.877627</v>
       </c>
     </row>
     <row r="463">
@@ -5526,10 +5526,10 @@
         <v>1.555</v>
       </c>
       <c r="B463" t="n">
-        <v>2115.24306627431</v>
+        <v>2151.790341796148</v>
       </c>
       <c r="C463" t="n">
-        <v>2115243066.274309</v>
+        <v>2151790341.796148</v>
       </c>
     </row>
     <row r="464">
@@ -5537,10 +5537,10 @@
         <v>1.56</v>
       </c>
       <c r="B464" t="n">
-        <v>2116.250637461958</v>
+        <v>2153.171571319489</v>
       </c>
       <c r="C464" t="n">
-        <v>2116250637.461958</v>
+        <v>2153171571.319489</v>
       </c>
     </row>
     <row r="465">
@@ -5548,10 +5548,10 @@
         <v>1.565</v>
       </c>
       <c r="B465" t="n">
-        <v>2117.255463025171</v>
+        <v>2154.549263942619</v>
       </c>
       <c r="C465" t="n">
-        <v>2117255463.025171</v>
+        <v>2154549263.942619</v>
       </c>
     </row>
     <row r="466">
@@ -5559,10 +5559,10 @@
         <v>1.57</v>
       </c>
       <c r="B466" t="n">
-        <v>2118.257559179353</v>
+        <v>2155.923439977423</v>
       </c>
       <c r="C466" t="n">
-        <v>2118257559.179353</v>
+        <v>2155923439.977423</v>
       </c>
     </row>
     <row r="467">
@@ -5570,10 +5570,10 @@
         <v>1.575</v>
       </c>
       <c r="B467" t="n">
-        <v>2119.256941992895</v>
+        <v>2157.294119554913</v>
       </c>
       <c r="C467" t="n">
-        <v>2119256941.992895</v>
+        <v>2157294119.554914</v>
       </c>
     </row>
     <row r="468">
@@ -5581,10 +5581,10 @@
         <v>1.58</v>
       </c>
       <c r="B468" t="n">
-        <v>2120.25362738896</v>
+        <v>2158.661322627406</v>
       </c>
       <c r="C468" t="n">
-        <v>2120253627.38896</v>
+        <v>2158661322.627406</v>
       </c>
     </row>
     <row r="469">
@@ -5592,10 +5592,10 @@
         <v>1.585</v>
       </c>
       <c r="B469" t="n">
-        <v>2121.247631147256</v>
+        <v>2160.025068970671</v>
       </c>
       <c r="C469" t="n">
-        <v>2121247631.147256</v>
+        <v>2160025068.970671</v>
       </c>
     </row>
     <row r="470">
@@ -5603,10 +5603,10 @@
         <v>1.59</v>
       </c>
       <c r="B470" t="n">
-        <v>2122.238968905771</v>
+        <v>2161.385378186045</v>
       </c>
       <c r="C470" t="n">
-        <v>2122238968.905771</v>
+        <v>2161385378.186045</v>
       </c>
     </row>
     <row r="471">
@@ -5614,10 +5614,10 @@
         <v>1.595</v>
       </c>
       <c r="B471" t="n">
-        <v>2123.227656162497</v>
+        <v>2162.742269702509</v>
       </c>
       <c r="C471" t="n">
-        <v>2123227656.162497</v>
+        <v>2162742269.702509</v>
       </c>
     </row>
     <row r="472">
@@ -5625,10 +5625,10 @@
         <v>1.6</v>
       </c>
       <c r="B472" t="n">
-        <v>2124.213708277104</v>
+        <v>2164.095762778742</v>
       </c>
       <c r="C472" t="n">
-        <v>2124213708.277104</v>
+        <v>2164095762.778741</v>
       </c>
     </row>
     <row r="473">
@@ -5636,10 +5636,10 @@
         <v>1.605</v>
       </c>
       <c r="B473" t="n">
-        <v>2125.197140472612</v>
+        <v>2165.44587650514</v>
       </c>
       <c r="C473" t="n">
-        <v>2125197140.472612</v>
+        <v>2165445876.50514</v>
       </c>
     </row>
     <row r="474">
@@ -5647,10 +5647,10 @@
         <v>1.61</v>
       </c>
       <c r="B474" t="n">
-        <v>2126.177967837025</v>
+        <v>2166.792629805807</v>
       </c>
       <c r="C474" t="n">
-        <v>2126177967.837025</v>
+        <v>2166792629.805807</v>
       </c>
     </row>
     <row r="475">
@@ -5658,10 +5658,10 @@
         <v>1.615</v>
       </c>
       <c r="B475" t="n">
-        <v>2127.156205324942</v>
+        <v>2168.13604144051</v>
       </c>
       <c r="C475" t="n">
-        <v>2127156205.324942</v>
+        <v>2168136041.44051</v>
       </c>
     </row>
     <row r="476">
@@ -5669,10 +5669,10 @@
         <v>1.62</v>
       </c>
       <c r="B476" t="n">
-        <v>2128.131867759148</v>
+        <v>2169.476130006615</v>
       </c>
       <c r="C476" t="n">
-        <v>2128131867.759148</v>
+        <v>2169476130.006615</v>
       </c>
     </row>
     <row r="477">
@@ -5680,10 +5680,10 @@
         <v>1.625</v>
       </c>
       <c r="B477" t="n">
-        <v>2129.104969832175</v>
+        <v>2170.812913940987</v>
       </c>
       <c r="C477" t="n">
-        <v>2129104969.832175</v>
+        <v>2170812913.940987</v>
       </c>
     </row>
     <row r="478">
@@ -5691,10 +5691,10 @@
         <v>1.63</v>
       </c>
       <c r="B478" t="n">
-        <v>2130.075526107848</v>
+        <v>2172.14641152186</v>
       </c>
       <c r="C478" t="n">
-        <v>2130075526.107848</v>
+        <v>2172146411.52186</v>
       </c>
     </row>
     <row r="479">
@@ -5702,10 +5702,10 @@
         <v>1.635</v>
       </c>
       <c r="B479" t="n">
-        <v>2131.043551022798</v>
+        <v>2173.476640870693</v>
       </c>
       <c r="C479" t="n">
-        <v>2131043551.022798</v>
+        <v>2173476640.870693</v>
       </c>
     </row>
     <row r="480">
@@ -5713,10 +5713,10 @@
         <v>1.64</v>
       </c>
       <c r="B480" t="n">
-        <v>2132.00905888796</v>
+        <v>2174.803619953982</v>
       </c>
       <c r="C480" t="n">
-        <v>2132009058.88796</v>
+        <v>2174803619.953981</v>
       </c>
     </row>
     <row r="481">
@@ -5724,10 +5724,10 @@
         <v>1.645</v>
       </c>
       <c r="B481" t="n">
-        <v>2132.972063890049</v>
+        <v>2176.127366585053</v>
       </c>
       <c r="C481" t="n">
-        <v>2132972063.890049</v>
+        <v>2176127366.585052</v>
       </c>
     </row>
     <row r="482">
@@ -5735,10 +5735,10 @@
         <v>1.65</v>
       </c>
       <c r="B482" t="n">
-        <v>2133.93258009301</v>
+        <v>2177.447898425832</v>
       </c>
       <c r="C482" t="n">
-        <v>2133932580.09301</v>
+        <v>2177447898.425832</v>
       </c>
     </row>
     <row r="483">
@@ -5746,10 +5746,10 @@
         <v>1.655</v>
       </c>
       <c r="B483" t="n">
-        <v>2134.890621439445</v>
+        <v>2178.765232988586</v>
       </c>
       <c r="C483" t="n">
-        <v>2134890621.439445</v>
+        <v>2178765232.988586</v>
       </c>
     </row>
     <row r="484">
@@ -5757,10 +5757,10 @@
         <v>1.66</v>
       </c>
       <c r="B484" t="n">
-        <v>2135.84620175203</v>
+        <v>2180.079387637636</v>
       </c>
       <c r="C484" t="n">
-        <v>2135846201.75203</v>
+        <v>2180079387.637636</v>
       </c>
     </row>
     <row r="485">
@@ -5768,10 +5768,10 @@
         <v>1.665</v>
       </c>
       <c r="B485" t="n">
-        <v>2136.799334734897</v>
+        <v>2181.390379591049</v>
       </c>
       <c r="C485" t="n">
-        <v>2136799334.734897</v>
+        <v>2181390379.591049</v>
       </c>
     </row>
     <row r="486">
@@ -5779,10 +5779,10 @@
         <v>1.67</v>
       </c>
       <c r="B486" t="n">
-        <v>2137.750033975011</v>
+        <v>2182.698225922308</v>
       </c>
       <c r="C486" t="n">
-        <v>2137750033.975011</v>
+        <v>2182698225.922308</v>
       </c>
     </row>
     <row r="487">
@@ -5790,10 +5790,10 @@
         <v>1.675</v>
       </c>
       <c r="B487" t="n">
-        <v>2138.698312943512</v>
+        <v>2184.002943561949</v>
       </c>
       <c r="C487" t="n">
-        <v>2138698312.943512</v>
+        <v>2184002943.561949</v>
       </c>
     </row>
     <row r="488">
@@ -5801,10 +5801,10 @@
         <v>1.68</v>
       </c>
       <c r="B488" t="n">
-        <v>2139.644184997045</v>
+        <v>2185.304549299187</v>
       </c>
       <c r="C488" t="n">
-        <v>2139644184.997045</v>
+        <v>2185304549.299187</v>
       </c>
     </row>
     <row r="489">
@@ -5812,10 +5812,10 @@
         <v>1.685</v>
       </c>
       <c r="B489" t="n">
-        <v>2140.587663379076</v>
+        <v>2186.603059783505</v>
       </c>
       <c r="C489" t="n">
-        <v>2140587663.379076</v>
+        <v>2186603059.783505</v>
       </c>
     </row>
     <row r="490">
@@ -5823,10 +5823,10 @@
         <v>1.69</v>
       </c>
       <c r="B490" t="n">
-        <v>2141.528761221178</v>
+        <v>2187.898491526236</v>
       </c>
       <c r="C490" t="n">
-        <v>2141528761.221178</v>
+        <v>2187898491.526236</v>
       </c>
     </row>
     <row r="491">
@@ -5834,10 +5834,10 @@
         <v>1.695</v>
       </c>
       <c r="B491" t="n">
-        <v>2142.467491544307</v>
+        <v>2189.190860902105</v>
       </c>
       <c r="C491" t="n">
-        <v>2142467491.544307</v>
+        <v>2189190860.902105</v>
       </c>
     </row>
     <row r="492">
@@ -5845,10 +5845,10 @@
         <v>1.7</v>
       </c>
       <c r="B492" t="n">
-        <v>2143.403867260057</v>
+        <v>2190.480184150765</v>
       </c>
       <c r="C492" t="n">
-        <v>2143403867.260057</v>
+        <v>2190480184.150765</v>
       </c>
     </row>
     <row r="493">
@@ -5856,10 +5856,10 @@
         <v>1.71</v>
       </c>
       <c r="B493" t="n">
-        <v>2145.269605976379</v>
+        <v>2193.049756558726</v>
       </c>
       <c r="C493" t="n">
-        <v>2145269605.976379</v>
+        <v>2193049756.558726</v>
       </c>
     </row>
     <row r="494">
@@ -5867,10 +5867,10 @@
         <v>1.72</v>
       </c>
       <c r="B494" t="n">
-        <v>2147.126078522198</v>
+        <v>2195.60733602262</v>
       </c>
       <c r="C494" t="n">
-        <v>2147126078.522197</v>
+        <v>2195607336.02262</v>
       </c>
     </row>
     <row r="495">
@@ -5878,10 +5878,10 @@
         <v>1.73</v>
       </c>
       <c r="B495" t="n">
-        <v>2148.973384377129</v>
+        <v>2198.153047748086</v>
       </c>
       <c r="C495" t="n">
-        <v>2148973384.377129</v>
+        <v>2198153047.748085</v>
       </c>
     </row>
     <row r="496">
@@ -5889,10 +5889,10 @@
         <v>1.74</v>
       </c>
       <c r="B496" t="n">
-        <v>2150.811621385484</v>
+        <v>2200.68701491918</v>
       </c>
       <c r="C496" t="n">
-        <v>2150811621.385484</v>
+        <v>2200687014.91918</v>
       </c>
     </row>
     <row r="497">
@@ -5900,10 +5900,10 @@
         <v>1.75</v>
       </c>
       <c r="B497" t="n">
-        <v>2152.640885792366</v>
+        <v>2203.20935874243</v>
       </c>
       <c r="C497" t="n">
-        <v>2152640885.792366</v>
+        <v>2203209358.74243</v>
       </c>
     </row>
     <row r="498">
@@ -5911,10 +5911,10 @@
         <v>1.76</v>
       </c>
       <c r="B498" t="n">
-        <v>2154.461272278778</v>
+        <v>2205.720198489666</v>
       </c>
       <c r="C498" t="n">
-        <v>2154461272.278779</v>
+        <v>2205720198.489666</v>
       </c>
     </row>
     <row r="499">
@@ -5922,10 +5922,10 @@
         <v>1.77</v>
       </c>
       <c r="B499" t="n">
-        <v>2156.272873995761</v>
+        <v>2208.219651539694</v>
       </c>
       <c r="C499" t="n">
-        <v>2156272873.995761</v>
+        <v>2208219651.539694</v>
       </c>
     </row>
     <row r="500">
@@ -5933,10 +5933,10 @@
         <v>1.78</v>
       </c>
       <c r="B500" t="n">
-        <v>2158.075782597595</v>
+        <v>2210.707833418848</v>
       </c>
       <c r="C500" t="n">
-        <v>2158075782.597595</v>
+        <v>2210707833.418848</v>
       </c>
     </row>
     <row r="501">
@@ -5944,10 +5944,10 @@
         <v>1.79</v>
       </c>
       <c r="B501" t="n">
-        <v>2159.870088274102</v>
+        <v>2213.184857840436</v>
       </c>
       <c r="C501" t="n">
-        <v>2159870088.274102</v>
+        <v>2213184857.840436</v>
       </c>
     </row>
     <row r="502">
@@ -5955,10 +5955,10 @@
         <v>1.8</v>
       </c>
       <c r="B502" t="n">
-        <v>2161.655879782079</v>
+        <v>2215.650836743145</v>
       </c>
       <c r="C502" t="n">
-        <v>2161655879.782078</v>
+        <v>2215650836.743145</v>
       </c>
     </row>
     <row r="503">
@@ -5966,10 +5966,10 @@
         <v>1.81</v>
       </c>
       <c r="B503" t="n">
-        <v>2163.433244475874</v>
+        <v>2218.105880328415</v>
       </c>
       <c r="C503" t="n">
-        <v>2163433244.475874</v>
+        <v>2218105880.328415</v>
       </c>
     </row>
     <row r="504">
@@ -5977,10 +5977,10 @@
         <v>1.82</v>
       </c>
       <c r="B504" t="n">
-        <v>2165.20226833716</v>
+        <v>2220.550097096831</v>
       </c>
       <c r="C504" t="n">
-        <v>2165202268.33716</v>
+        <v>2220550097.09683</v>
       </c>
     </row>
     <row r="505">
@@ -5988,10 +5988,10 @@
         <v>1.83</v>
       </c>
       <c r="B505" t="n">
-        <v>2166.963036003906</v>
+        <v>2222.983593883551</v>
       </c>
       <c r="C505" t="n">
-        <v>2166963036.003906</v>
+        <v>2222983593.883551</v>
       </c>
     </row>
     <row r="506">
@@ -5999,10 +5999,10 @@
         <v>1.84</v>
       </c>
       <c r="B506" t="n">
-        <v>2168.715630798585</v>
+        <v>2225.406475892812</v>
       </c>
       <c r="C506" t="n">
-        <v>2168715630.798584</v>
+        <v>2225406475.892812</v>
       </c>
     </row>
     <row r="507">
@@ -6010,10 +6010,10 @@
         <v>1.85</v>
       </c>
       <c r="B507" t="n">
-        <v>2170.460134755642</v>
+        <v>2227.818846731535</v>
       </c>
       <c r="C507" t="n">
-        <v>2170460134.755642</v>
+        <v>2227818846.731535</v>
       </c>
     </row>
     <row r="508">
@@ -6021,10 +6021,10 @@
         <v>1.86</v>
       </c>
       <c r="B508" t="n">
-        <v>2172.196628648242</v>
+        <v>2230.22080844206</v>
       </c>
       <c r="C508" t="n">
-        <v>2172196628.648242</v>
+        <v>2230220808.44206</v>
       </c>
     </row>
     <row r="509">
@@ -6032,10 +6032,10 @@
         <v>1.87</v>
       </c>
       <c r="B509" t="n">
-        <v>2173.925192014322</v>
+        <v>2232.61246153404</v>
       </c>
       <c r="C509" t="n">
-        <v>2173925192.014322</v>
+        <v>2232612461.53404</v>
       </c>
     </row>
     <row r="510">
@@ -6043,10 +6043,10 @@
         <v>1.88</v>
       </c>
       <c r="B510" t="n">
-        <v>2175.64590318197</v>
+        <v>2234.993905015518</v>
       </c>
       <c r="C510" t="n">
-        <v>2175645903.18197</v>
+        <v>2234993905.015518</v>
       </c>
     </row>
     <row r="511">
@@ -6054,10 +6054,10 @@
         <v>1.89</v>
       </c>
       <c r="B511" t="n">
-        <v>2177.358839294146</v>
+        <v>2237.365236423208</v>
       </c>
       <c r="C511" t="n">
-        <v>2177358839.294146</v>
+        <v>2237365236.423208</v>
       </c>
     </row>
     <row r="512">
@@ -6065,10 +6065,10 @@
         <v>1.9</v>
       </c>
       <c r="B512" t="n">
-        <v>2179.064076332778</v>
+        <v>2239.726551852017</v>
       </c>
       <c r="C512" t="n">
-        <v>2179064076.332778</v>
+        <v>2239726551.852016</v>
       </c>
     </row>
     <row r="513">
@@ -6076,10 +6076,10 @@
         <v>1.91</v>
       </c>
       <c r="B513" t="n">
-        <v>2180.761689142241</v>
+        <v>2242.077945983812</v>
       </c>
       <c r="C513" t="n">
-        <v>2180761689.142241</v>
+        <v>2242077945.983812</v>
       </c>
     </row>
     <row r="514">
@@ -6087,10 +6087,10 @@
         <v>1.92</v>
       </c>
       <c r="B514" t="n">
-        <v>2182.451751452234</v>
+        <v>2244.419512115478</v>
       </c>
       <c r="C514" t="n">
-        <v>2182451751.452234</v>
+        <v>2244419512.115478</v>
       </c>
     </row>
     <row r="515">
@@ -6098,10 +6098,10 @@
         <v>1.93</v>
       </c>
       <c r="B515" t="n">
-        <v>2184.134335900089</v>
+        <v>2246.751342186264</v>
       </c>
       <c r="C515" t="n">
-        <v>2184134335.900089</v>
+        <v>2246751342.186264</v>
       </c>
     </row>
     <row r="516">
@@ -6109,10 +6109,10 @@
         <v>1.94</v>
       </c>
       <c r="B516" t="n">
-        <v>2185.809514052523</v>
+        <v>2249.07352680446</v>
       </c>
       <c r="C516" t="n">
-        <v>2185809514.052523</v>
+        <v>2249073526.80446</v>
       </c>
     </row>
     <row r="517">
@@ -6120,10 +6120,10 @@
         <v>1.95</v>
       </c>
       <c r="B517" t="n">
-        <v>2187.477356426833</v>
+        <v>2251.386155273408</v>
       </c>
       <c r="C517" t="n">
-        <v>2187477356.426834</v>
+        <v>2251386155.273408</v>
       </c>
     </row>
     <row r="518">
@@ -6131,10 +6131,10 @@
         <v>1.96</v>
       </c>
       <c r="B518" t="n">
-        <v>2189.137932511583</v>
+        <v>2253.689315616882</v>
       </c>
       <c r="C518" t="n">
-        <v>2189137932.511583</v>
+        <v>2253689315.616882</v>
       </c>
     </row>
     <row r="519">
@@ -6142,10 +6142,10 @@
         <v>1.97</v>
       </c>
       <c r="B519" t="n">
-        <v>2190.791310786763</v>
+        <v>2255.983094603835</v>
       </c>
       <c r="C519" t="n">
-        <v>2190791310.786763</v>
+        <v>2255983094.603835</v>
       </c>
     </row>
     <row r="520">
@@ -6153,10 +6153,10 @@
         <v>1.98</v>
       </c>
       <c r="B520" t="n">
-        <v>2192.437558743469</v>
+        <v>2258.267577772564</v>
       </c>
       <c r="C520" t="n">
-        <v>2192437558.743469</v>
+        <v>2258267577.772563</v>
       </c>
     </row>
     <row r="521">
@@ -6164,10 +6164,10 @@
         <v>1.99</v>
       </c>
       <c r="B521" t="n">
-        <v>2194.076742903089</v>
+        <v>2260.542849454267</v>
       </c>
       <c r="C521" t="n">
-        <v>2194076742.90309</v>
+        <v>2260542849.454267</v>
       </c>
     </row>
     <row r="522">
@@ -6175,10 +6175,10 @@
         <v>2</v>
       </c>
       <c r="B522" t="n">
-        <v>2195.708928836028</v>
+        <v>2262.808992796055</v>
       </c>
       <c r="C522" t="n">
-        <v>2195708928.836029</v>
+        <v>2262808992.796055</v>
       </c>
     </row>
     <row r="523">
@@ -6186,10 +6186,10 @@
         <v>2.02</v>
       </c>
       <c r="B523" t="n">
-        <v>2198.95256365776</v>
+        <v>2267.314221262035</v>
       </c>
       <c r="C523" t="n">
-        <v>2198952563.657761</v>
+        <v>2267314221.262035</v>
       </c>
     </row>
     <row r="524">
@@ -6197,10 +6197,10 @@
         <v>2.04</v>
       </c>
       <c r="B524" t="n">
-        <v>2202.168969435665</v>
+        <v>2271.783905505426</v>
       </c>
       <c r="C524" t="n">
-        <v>2202168969.435665</v>
+        <v>2271783905.505425</v>
       </c>
     </row>
     <row r="525">
@@ -6208,10 +6208,10 @@
         <v>2.06</v>
       </c>
       <c r="B525" t="n">
-        <v>2205.358638305715</v>
+        <v>2276.218670298229</v>
       </c>
       <c r="C525" t="n">
-        <v>2205358638.305715</v>
+        <v>2276218670.298229</v>
       </c>
     </row>
     <row r="526">
@@ -6219,10 +6219,10 @@
         <v>2.08</v>
       </c>
       <c r="B526" t="n">
-        <v>2208.522048837518</v>
+        <v>2280.619123494937</v>
       </c>
       <c r="C526" t="n">
-        <v>2208522048.837518</v>
+        <v>2280619123.494937</v>
       </c>
     </row>
     <row r="527">
@@ -6230,10 +6230,10 @@
         <v>2.1</v>
       </c>
       <c r="B527" t="n">
-        <v>2211.659666534605</v>
+        <v>2284.985856648273</v>
       </c>
       <c r="C527" t="n">
-        <v>2211659666.534605</v>
+        <v>2284985856.648273</v>
       </c>
     </row>
     <row r="528">
@@ -6241,10 +6241,10 @@
         <v>2.12</v>
       </c>
       <c r="B528" t="n">
-        <v>2214.771944311694</v>
+        <v>2289.319445596894</v>
       </c>
       <c r="C528" t="n">
-        <v>2214771944.311694</v>
+        <v>2289319445.596894</v>
       </c>
     </row>
     <row r="529">
@@ -6252,10 +6252,10 @@
         <v>2.14</v>
       </c>
       <c r="B529" t="n">
-        <v>2217.859322950213</v>
+        <v>2293.620451026577</v>
       </c>
       <c r="C529" t="n">
-        <v>2217859322.950212</v>
+        <v>2293620451.026577</v>
       </c>
     </row>
     <row r="530">
@@ -6263,10 +6263,10 @@
         <v>2.16</v>
       </c>
       <c r="B530" t="n">
-        <v>2220.922231533238</v>
+        <v>2297.88941900633</v>
       </c>
       <c r="C530" t="n">
-        <v>2220922231.533237</v>
+        <v>2297889419.00633</v>
       </c>
     </row>
     <row r="531">
@@ -6274,10 +6274,10 @@
         <v>2.18</v>
       </c>
       <c r="B531" t="n">
-        <v>2223.961087860986</v>
+        <v>2302.126881500763</v>
       </c>
       <c r="C531" t="n">
-        <v>2223961087.860987</v>
+        <v>2302126881.500763</v>
       </c>
     </row>
     <row r="532">
@@ -6285,10 +6285,10 @@
         <v>2.2</v>
       </c>
       <c r="B532" t="n">
-        <v>2226.976298847886</v>
+        <v>2306.333356859977</v>
       </c>
       <c r="C532" t="n">
-        <v>2226976298.847886</v>
+        <v>2306333356.859977</v>
       </c>
     </row>
     <row r="533">
@@ -6296,10 +6296,10 @@
         <v>2.22</v>
       </c>
       <c r="B533" t="n">
-        <v>2229.968260902197</v>
+        <v>2310.50935028816</v>
       </c>
       <c r="C533" t="n">
-        <v>2229968260.902197</v>
+        <v>2310509350.28816</v>
       </c>
     </row>
     <row r="534">
@@ -6307,10 +6307,10 @@
         <v>2.24</v>
       </c>
       <c r="B534" t="n">
-        <v>2232.937360289119</v>
+        <v>2314.655354291987</v>
       </c>
       <c r="C534" t="n">
-        <v>2232937360.289119</v>
+        <v>2314655354.291987</v>
       </c>
     </row>
     <row r="535">
@@ -6318,10 +6318,10 @@
         <v>2.26</v>
       </c>
       <c r="B535" t="n">
-        <v>2235.883973478217</v>
+        <v>2318.771849109876</v>
       </c>
       <c r="C535" t="n">
-        <v>2235883973.478217</v>
+        <v>2318771849.109876</v>
       </c>
     </row>
     <row r="536">
@@ -6329,10 +6329,10 @@
         <v>2.28</v>
       </c>
       <c r="B536" t="n">
-        <v>2238.808467476004</v>
+        <v>2322.859303123073</v>
       </c>
       <c r="C536" t="n">
-        <v>2238808467.476004</v>
+        <v>2322859303.123074</v>
       </c>
     </row>
     <row r="537">
@@ -6340,10 +6340,10 @@
         <v>2.3</v>
       </c>
       <c r="B537" t="n">
-        <v>2241.711200144409</v>
+        <v>2326.918173249494</v>
       </c>
       <c r="C537" t="n">
-        <v>2241711200.144409</v>
+        <v>2326918173.249495</v>
       </c>
     </row>
     <row r="538">
@@ -6351,10 +6351,10 @@
         <v>2.32</v>
       </c>
       <c r="B538" t="n">
-        <v>2244.592520505876</v>
+        <v>2330.948905321179</v>
       </c>
       <c r="C538" t="n">
-        <v>2244592520.505876</v>
+        <v>2330948905.321179</v>
       </c>
     </row>
     <row r="539">
@@ -6362,10 +6362,10 @@
         <v>2.34</v>
       </c>
       <c r="B539" t="n">
-        <v>2247.452769035739</v>
+        <v>2334.951934446184</v>
       </c>
       <c r="C539" t="n">
-        <v>2247452769.035738</v>
+        <v>2334951934.446184</v>
       </c>
     </row>
     <row r="540">
@@ -6373,10 +6373,10 @@
         <v>2.36</v>
       </c>
       <c r="B540" t="n">
-        <v>2250.292277942528</v>
+        <v>2338.927685355683</v>
       </c>
       <c r="C540" t="n">
-        <v>2250292277.942528</v>
+        <v>2338927685.355682</v>
       </c>
     </row>
     <row r="541">
@@ -6384,10 +6384,10 @@
         <v>2.38</v>
       </c>
       <c r="B541" t="n">
-        <v>2253.111371436787</v>
+        <v>2342.876572736991</v>
       </c>
       <c r="C541" t="n">
-        <v>2253111371.436787</v>
+        <v>2342876572.736991</v>
       </c>
     </row>
     <row r="542">
@@ -6395,10 +6395,10 @@
         <v>2.4</v>
       </c>
       <c r="B542" t="n">
-        <v>2255.910365988978</v>
+        <v>2346.799001553206</v>
       </c>
       <c r="C542" t="n">
-        <v>2255910365.988978</v>
+        <v>2346799001.553206</v>
       </c>
     </row>
     <row r="543">
@@ -6406,10 +6406,10 @@
         <v>2.42</v>
       </c>
       <c r="B543" t="n">
-        <v>2258.689570576993</v>
+        <v>2350.695367350102</v>
       </c>
       <c r="C543" t="n">
-        <v>2258689570.576993</v>
+        <v>2350695367.350101</v>
       </c>
     </row>
     <row r="544">
@@ -6417,10 +6417,10 @@
         <v>2.44</v>
       </c>
       <c r="B544" t="n">
-        <v>2261.449286923779</v>
+        <v>2354.566056550893</v>
       </c>
       <c r="C544" t="n">
-        <v>2261449286.923779</v>
+        <v>2354566056.550893</v>
       </c>
     </row>
     <row r="545">
@@ -6428,10 +6428,10 @@
         <v>2.46</v>
       </c>
       <c r="B545" t="n">
-        <v>2264.189809725546</v>
+        <v>2358.411446739439</v>
       </c>
       <c r="C545" t="n">
-        <v>2264189809.725546</v>
+        <v>2358411446.739439</v>
       </c>
     </row>
     <row r="546">
@@ -6439,10 +6439,10 @@
         <v>2.48</v>
       </c>
       <c r="B546" t="n">
-        <v>2266.911426871014</v>
+        <v>2362.231906932433</v>
       </c>
       <c r="C546" t="n">
-        <v>2266911426.871014</v>
+        <v>2362231906.932433</v>
       </c>
     </row>
     <row r="547">
@@ -6450,10 +6450,10 @@
         <v>2.5</v>
       </c>
       <c r="B547" t="n">
-        <v>2269.614419652099</v>
+        <v>2366.027797841086</v>
       </c>
       <c r="C547" t="n">
-        <v>2269614419.652099</v>
+        <v>2366027797.841086</v>
       </c>
     </row>
     <row r="548">
@@ -6461,10 +6461,10 @@
         <v>2.52</v>
       </c>
       <c r="B548" t="n">
-        <v>2272.299062966461</v>
+        <v>2369.7994721228</v>
       </c>
       <c r="C548" t="n">
-        <v>2272299062.966461</v>
+        <v>2369799472.1228</v>
       </c>
     </row>
     <row r="549">
@@ -6472,10 +6472,10 @@
         <v>2.54</v>
       </c>
       <c r="B549" t="n">
-        <v>2274.965625512279</v>
+        <v>2373.547274623277</v>
       </c>
       <c r="C549" t="n">
-        <v>2274965625.512279</v>
+        <v>2373547274.623277</v>
       </c>
     </row>
     <row r="550">
@@ -6483,10 +6483,10 @@
         <v>2.56</v>
       </c>
       <c r="B550" t="n">
-        <v>2277.614369975607</v>
+        <v>2377.271542609516</v>
       </c>
       <c r="C550" t="n">
-        <v>2277614369.975607</v>
+        <v>2377271542.609516</v>
       </c>
     </row>
     <row r="551">
@@ -6494,10 +6494,10 @@
         <v>2.58</v>
       </c>
       <c r="B551" t="n">
-        <v>2280.245553210655</v>
+        <v>2380.972605994092</v>
       </c>
       <c r="C551" t="n">
-        <v>2280245553.210655</v>
+        <v>2380972605.994092</v>
       </c>
     </row>
     <row r="552">
@@ -6505,10 +6505,10 @@
         <v>2.6</v>
       </c>
       <c r="B552" t="n">
-        <v>2282.859426413316</v>
+        <v>2384.650787551119</v>
       </c>
       <c r="C552" t="n">
-        <v>2282859426.413316</v>
+        <v>2384650787.551119</v>
       </c>
     </row>
     <row r="553">
@@ -6516,10 +6516,10 @@
         <v>2.62</v>
       </c>
       <c r="B553" t="n">
-        <v>2285.456235288235</v>
+        <v>2388.306403124266</v>
       </c>
       <c r="C553" t="n">
-        <v>2285456235.288235</v>
+        <v>2388306403.124266</v>
       </c>
     </row>
     <row r="554">
@@ -6527,10 +6527,10 @@
         <v>2.64</v>
       </c>
       <c r="B554" t="n">
-        <v>2288.036220209715</v>
+        <v>2391.939761827168</v>
       </c>
       <c r="C554" t="n">
-        <v>2288036220.209715</v>
+        <v>2391939761.827168</v>
       </c>
     </row>
     <row r="555">
@@ -6538,10 +6538,10 @@
         <v>2.66</v>
       </c>
       <c r="B555" t="n">
-        <v>2290.599616376726</v>
+        <v>2395.551166236581</v>
       </c>
       <c r="C555" t="n">
-        <v>2290599616.376726</v>
+        <v>2395551166.236581</v>
       </c>
     </row>
     <row r="556">
@@ -6549,10 +6549,10 @@
         <v>2.68</v>
       </c>
       <c r="B556" t="n">
-        <v>2293.146653962279</v>
+        <v>2399.140912578578</v>
       </c>
       <c r="C556" t="n">
-        <v>2293146653.962279</v>
+        <v>2399140912.578578</v>
       </c>
     </row>
     <row r="557">
@@ -6560,10 +6560,10 @@
         <v>2.7</v>
       </c>
       <c r="B557" t="n">
-        <v>2295.677558257409</v>
+        <v>2402.709290908101</v>
       </c>
       <c r="C557" t="n">
-        <v>2295677558.257409</v>
+        <v>2402709290.908101</v>
       </c>
     </row>
     <row r="558">
@@ -6571,10 +6571,10 @@
         <v>2.72</v>
       </c>
       <c r="B558" t="n">
-        <v>2298.192549810005</v>
+        <v>2406.256585282149</v>
       </c>
       <c r="C558" t="n">
-        <v>2298192549.810005</v>
+        <v>2406256585.282148</v>
       </c>
     </row>
     <row r="559">
@@ -6582,10 +6582,10 @@
         <v>2.74</v>
       </c>
       <c r="B559" t="n">
-        <v>2300.691844558698</v>
+        <v>2409.783073926863</v>
       </c>
       <c r="C559" t="n">
-        <v>2300691844.558699</v>
+        <v>2409783073.926863</v>
       </c>
     </row>
     <row r="560">
@@ -6593,10 +6593,10 @@
         <v>2.76</v>
       </c>
       <c r="B560" t="n">
-        <v>2303.175653962026</v>
+        <v>2413.289029398788</v>
       </c>
       <c r="C560" t="n">
-        <v>2303175653.962027</v>
+        <v>2413289029.398787</v>
       </c>
     </row>
     <row r="561">
@@ -6604,10 +6604,10 @@
         <v>2.78</v>
       </c>
       <c r="B561" t="n">
-        <v>2305.644185123071</v>
+        <v>2416.774718740528</v>
       </c>
       <c r="C561" t="n">
-        <v>2305644185.123071</v>
+        <v>2416774718.740529</v>
       </c>
     </row>
     <row r="562">
@@ -6615,10 +6615,10 @@
         <v>2.8</v>
       </c>
       <c r="B562" t="n">
-        <v>2308.09764090976</v>
+        <v>2420.240403631054</v>
       </c>
       <c r="C562" t="n">
-        <v>2308097640.90976</v>
+        <v>2420240403.631054</v>
       </c>
     </row>
     <row r="563">
@@ -6626,10 +6626,10 @@
         <v>2.82</v>
       </c>
       <c r="B563" t="n">
-        <v>2310.536220071012</v>
+        <v>2423.686340530863</v>
       </c>
       <c r="C563" t="n">
-        <v>2310536220.071012</v>
+        <v>2423686340.530863</v>
       </c>
     </row>
     <row r="564">
@@ -6637,10 +6637,10 @@
         <v>2.84</v>
       </c>
       <c r="B564" t="n">
-        <v>2312.9601173489</v>
+        <v>2427.112780822216</v>
       </c>
       <c r="C564" t="n">
-        <v>2312960117.3489</v>
+        <v>2427112780.822216</v>
       </c>
     </row>
     <row r="565">
@@ -6648,10 +6648,10 @@
         <v>2.86</v>
       </c>
       <c r="B565" t="n">
-        <v>2315.369523586991</v>
+        <v>2430.519970944649</v>
       </c>
       <c r="C565" t="n">
-        <v>2315369523.586991</v>
+        <v>2430519970.944649</v>
       </c>
     </row>
     <row r="566">
@@ -6659,10 +6659,10 @@
         <v>2.88</v>
       </c>
       <c r="B566" t="n">
-        <v>2317.764625835025</v>
+        <v>2433.908152525944</v>
       </c>
       <c r="C566" t="n">
-        <v>2317764625.835025</v>
+        <v>2433908152.525944</v>
       </c>
     </row>
     <row r="567">
@@ -6670,10 +6670,10 @@
         <v>2.9</v>
       </c>
       <c r="B567" t="n">
-        <v>2320.145607450073</v>
+        <v>2437.27756250875</v>
       </c>
       <c r="C567" t="n">
-        <v>2320145607.450073</v>
+        <v>2437277562.50875</v>
       </c>
     </row>
     <row r="568">
@@ -6681,10 +6681,10 @@
         <v>2.92</v>
       </c>
       <c r="B568" t="n">
-        <v>2322.512648194329</v>
+        <v>2440.628433273026</v>
       </c>
       <c r="C568" t="n">
-        <v>2322512648.194329</v>
+        <v>2440628433.273026</v>
       </c>
     </row>
     <row r="569">
@@ -6692,10 +6692,10 @@
         <v>2.94</v>
       </c>
       <c r="B569" t="n">
-        <v>2324.865924329653</v>
+        <v>2443.960992754461</v>
       </c>
       <c r="C569" t="n">
-        <v>2324865924.329653</v>
+        <v>2443960992.754461</v>
       </c>
     </row>
     <row r="570">
@@ -6703,10 +6703,10 @@
         <v>2.96</v>
       </c>
       <c r="B570" t="n">
-        <v>2327.205608709012</v>
+        <v>2447.275464559049</v>
       </c>
       <c r="C570" t="n">
-        <v>2327205608.709012</v>
+        <v>2447275464.559049</v>
       </c>
     </row>
     <row r="571">
@@ -6714,10 +6714,10 @@
         <v>2.98</v>
       </c>
       <c r="B571" t="n">
-        <v>2329.531870864921</v>
+        <v>2450.572068073951</v>
       </c>
       <c r="C571" t="n">
-        <v>2329531870.864921</v>
+        <v>2450572068.07395</v>
       </c>
     </row>
     <row r="572">
@@ -6725,10 +6725,10 @@
         <v>3</v>
       </c>
       <c r="B572" t="n">
-        <v>2331.844877095025</v>
+        <v>2453.851018574797</v>
       </c>
       <c r="C572" t="n">
-        <v>2331844877.095025</v>
+        <v>2453851018.574797</v>
       </c>
     </row>
   </sheetData>
